--- a/fullcontent.xlsx
+++ b/fullcontent.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="492">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -43,1035 +43,1119 @@
     <t xml:space="preserve">SDTools</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After a while, you realise that what you want to get out of your mind and into the image just does not seem to exist in the model. This is where you set about to capturing concepts. These concepts can be styles or can be objects. There are a wide variety of ways of capturing concepts descrbied here for later use during image creation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capturing concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are some of the settings and tweaks you can use when the image is not quite right or if you want to speed up the generation process?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is about those finishing touches so that the image can be displayed. If there are issues with faces we will fix theses with face restoration. When we are happy, we will upscale (and SD upscale as it is DA best) until desired image size. We may even do a bit of inpainting after that just to touch up small details after upscaling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finishing</t>
+  </si>
+  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">After a while, you realise that what you want to get out of your mind and into the image just does not seem to exist in the model. This is where you set about to capturing concepts. These concepts can be styles or can be objects. There are a wide variety of ways of capturing concepts descrbied here for later use during image creation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capturing concepts</t>
+    <t xml:space="preserve">This is about editing the composition until we are happy with it. We start from an image we previously created and either expand it (outpainting) or modify it (inpainting) or find alternate images with img2img.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editing</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">What are some of the settings and tweaks you can use when the image is not quite right or if you want to speed up the generation process?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Settings</t>
+    <t xml:space="preserve">First we initiate the composition. We could do this with broad brushstrokes or pencil (then img2img). Here we show how to do it with text2img. &lt;br&gt; &lt;br&gt; There are alternatives to controlNet and T2I. For instance see, multidiffusion which allows to precisely control fwhere different subjects are placed on the composition. &lt;br&gt; &lt;a target='_blank' id='links' href='https://multidiffusion.github.io/'&gt;Multidiffusion repo&lt;/a&gt; &lt;br&gt; Grounded-Language-to-Image Generation allows you precise control over where different subject are placed in the composition.  &lt;br&gt; &lt;a target='_blank' id='links' href='https://gligen.github.io/'&gt;GLIGEN repo&lt;/a&gt; &lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composition</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">This is about those finishing touches so that the image can be displayed. If there are issues with faces we will fix theses with face restoration. When we are happy, we will upscale (and SD upscale as it is DA best) until desired image size. We may even do a bit of inpainting after that just to touch up small details after upscaling.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finishing</t>
+    <t xml:space="preserve">So with text2image you have no control over the composition and with image2image you have some control but not so much. This is about capturing the composition of an image to use it later in a ControlNet model trained with such image.  &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://www.reddit.com/r/StableDiffusion/comments/119o71b/a1111_controlnet_extension_explained_like_youre_5/?utm_name=androidcss'&gt; Control net explainer&lt;/a&gt; &lt;br&gt; &lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prompting</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">This is about editing the composition until we are happy with it. We start from an image we previously created and either expand it (outpainting) or modify it (inpainting) or find alternate images with img2img.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editing</t>
+    <t xml:space="preserve">At its core we have the stable diffusion model (your ckpt file) which itself contains 3 models VAE (the bit that squish and unsquish the image into a tiny latent space), Unet (the bit that does the diffusion) and CLIP (the bit that guides the diffusion with text prompts). Different models will use different Unet, they will often use different VAE and may use different CLIP models. In addition, we have a range of way to perform the denoising in different samplers. &lt;br&gt; &lt;br&gt; Find out the crux of how this works here: &lt;br&gt; &lt;a target='_blank' id='links' href='https://www.youtube.com/watch?v=1CIpzeNxIhU'&gt; Computerphile: How Stable Diffusion Works &lt;/a&gt;. &lt;br&gt; From the original &lt;a target='_blank' id='links' href='https://arxiv.org/pdf/2112.10752.pdf'&gt;paper&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting started</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
-    <t xml:space="preserve">First we initiate the composition. We could do this with broad brushstrokes or pencil (then img2img). Here we show how to do it with text2img. &lt;br&gt; &lt;br&gt; There are alternatives to controlNet and T2I. For instance see, multidiffusion which allows to precisely control fwhere different subjects are placed on the composition. &lt;br&gt; &lt;a target='_blank' id='links' href='https://multidiffusion.github.io/'&gt;Multidiffusion repo&lt;/a&gt; &lt;br&gt; Grounded-Language-to-Image Generation allows you precise control over where different subject are placed in the composition.  &lt;br&gt; &lt;a target='_blank' id='links' href='https://gligen.github.io/'&gt;GLIGEN repo&lt;/a&gt; &lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composition</t>
+    <t xml:space="preserve">Most of the time, you will be producing images that are 512x512 or 768x768. This is so you can produce many images very quickly and also because your graphic card or cloud GPU cannot handle producing huge 2048x2048 images. But say you want to do a printout of the images, they will look super pixalated. How do you solve that? By upscaling. Upscaling allows to increase the resolution. You can find heaps of upscaling models on the &lt;br&gt; &lt;a target='_blank' id='links' href='https://upscale.wiki/wiki/Model_Database'&gt; upscale Wiki Model Database &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upscaling</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
-    <t xml:space="preserve">So with text2image you have no control over the composition and with image2image you have some control but not so much. This is about capturing the composition of an image to use it later in a ControlNet model trained with such image.  &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://www.reddit.com/r/StableDiffusion/comments/119o71b/a1111_controlnet_extension_explained_like_youre_5/?utm_name=androidcss'&gt; Control net explainer&lt;/a&gt; &lt;br&gt; &lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prompting</t>
+    <t xml:space="preserve">Sometimes the base models (1.4, 1.5, 2.0, 2.1....) or custom models just do not cut it for what you want to do. You want to use a particular subject or style that you can't seem to get by just typing prompts in text2images. An option is to finetune the model to your particular requirement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine tuning</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">At its core we have the stable diffusion model (your ckpt file) which itself contains 3 models VAE (the bit that squish and unsquish the image into a tiny latent space), Unet (the bit that does the diffusion) and CLIP (the bit that guides the diffusion with text prompts). Different models will use different Unet, they will often use different VAE and may use different CLIP models. In addition, we have a range of way to perform the denoising in different samplers. &lt;br&gt; &lt;br&gt; Find out the crux of how this works here: &lt;br&gt; &lt;a target='_blank' id='links' href='https://www.youtube.com/watch?v=1CIpzeNxIhU'&gt; Computerphile: How Stable Diffusion Works &lt;/a&gt;. &lt;br&gt; From the original &lt;a target='_blank' id='links' href='https://arxiv.org/pdf/2112.10752.pdf'&gt;paper&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Getting started</t>
+    <t xml:space="preserve">Sometimes the base models (1.4, 1.5, 2.0, 2.1....) or custom models just do not cut it for what you want to do. You want to use a particular subject or style that you can't seem to get by just typing prompts in text2images. This is when you can train the model. You can train it to a subject (say your cat, your house or yourself) or a style (say Pop Art). Once you have train the model with images of this subject or style instance, you can use it to generate exactly what you want to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">Most of the time, you will be producing images that are 512x512 or 768x768. This is so you can produce many images very quickly and also because your graphic card or cloud GPU cannot handle producing huge 2048x2048 images. But say you want to do a printout of the images, they will look super pixalated. How do you solve that? By upscaling. Upscaling allows to increase the resolution. You can find heaps of upscaling models on the &lt;br&gt; &lt;a target='_blank' id='links' href='https://upscale.wiki/wiki/Model_Database'&gt; upscale Wiki Model Database &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upscaling</t>
+    <t xml:space="preserve">In Image2Image, instead of starting with a noise image we start with an existing image and add some noise to it, before denoising it again. The resulting image is close to the initial image. The denoising strength controls how different the resulting image is to the initial image.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image2Image</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">Sometimes the base models (1.4, 1.5, 2.0, 2.1....) or custom models just do not cut it for what you want to do. You want to use a particular subject or style that you can't seem to get by just typing prompts in text2images. An option is to finetune the model to your particular requirement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine tuning</t>
+    <t xml:space="preserve">Use Image2text when you want to find out what prompts could be contained in an image or when you want to programatically label data for training.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixing</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
-    <t xml:space="preserve">Sometimes the base models (1.4, 1.5, 2.0, 2.1....) or custom models just do not cut it for what you want to do. You want to use a particular subject or style that you can't seem to get by just typing prompts in text2images. This is when you can train the model. You can train it to a subject (say your cat, your house or yourself) or a style (say Pop Art). Once you have train the model with images of this subject or style instance, you can use it to generate exactly what you want to.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Training</t>
+    <t xml:space="preserve">Why do we need different samplers? We start with a complete noise image. At each steps, we denoise the image a little bit. Solving this problem equates to solving a bunch of discretised differential equations. The different samplers are just different methods to solve differential equations. The two classic methods Euler and Heun date back to more than a century. They are quite slow so you may as well use faster newer ones that produce the same results (like LMS, PLMS, DPM2, DDIM and DPM++). Some other methods like DDIM, DPM and DPM2 are relatively new, they are neural network based method of solving this. Euler and Heun are single step method (the next image depends only on the previous image), while other methods are multi steps methods (LMS, PLMS). All samplers can come in an Ancestral flavour. That essentially means that at each time step a little bit of noise is added. Because noise is added, Ancestral samplers do not converge to an image like other samplers do, they simply keep on giving new images with increasing number of steps. Additionaly samplers like DPM Adapative and DPM Fast (which is not fast) do not converge either. &lt;br&gt; Speed matters a lot when we are doing big batches of images. But don't be fooled by study which compare the number of steps of different samplers before they generate a decent image. The number of steps does not correlate with the time it takes when comparing different samplers. Some samplers are super slow and some super fast. E.g. DPM++ converges in a very low number of steps but for each step it is a bit longer than other samplers. Anyway do your own timing tests. The bottomline is that there are heaps of samples, many giving the same images as the DPM++ samplers for much longer computation times. It is hard to justify using anything else than the DPM++ samples. The exception is obviously the ancestral samplers Euler A which is so good that we can not not use it.&lt;br&gt; &lt;a target='_blank' id='links' href='https://www.youtube.com/watch?v=gtr-4CUBfeQ'&gt; One study on samplers&lt;/a&gt; &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='Samplers.png' alt='Samplers'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samplers</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">In Image2Image, instead of starting with a noise image we start with an existing image and add some noise to it, before denoising it again. The resulting image is close to the initial image. The denoising strength controls how different the resulting image is to the initial image.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image2Image</t>
+    <t xml:space="preserve">Often after Creating images some images, we need to perform restorations to fix some details. This can be to sharpen the image like when doing upscaling or this can be to fix faces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restoring</t>
   </si>
   <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
-    <t xml:space="preserve">Use Image2text when you want to find out what prompts could be contained in an image or when you want to programatically label data for training.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixing</t>
+    <t xml:space="preserve">How do you mix two concepts together? How do you put two styles or objects together? If they are embeddings or hypernetwork you can use them at the same time. E.g. you can use two or more embeddings at the same time. You can use two or more hypernetworks at the same time. If they are checkpoints you have to merge them together.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image2text</t>
   </si>
   <si>
     <t xml:space="preserve">16</t>
   </si>
   <si>
-    <t xml:space="preserve">Why do we need different samplers? We start with a complete noise image. At each steps, we denoise the image a little bit. Solving this problem equates to solving a bunch of discretised differential equations. The different samplers are just different methods to solve differential equations. The two classic methods Euler and Heun date back to more than a century. They are quite slow so you may as well use faster newer ones that produce the same results (like LMS, PLMS, DPM2, DDIM and DPM++). Some other methods like DDIM, DPM and DPM2 are relatively new, they are neural network based method of solving this. Euler and Heun are single step method (the next image depends only on the previous image), while other methods are multi steps methods (LMS, PLMS). All samplers can come in an Ancestral flavour. That essentially means that at each time step a little bit of noise is added. Because noise is added, Ancestral samplers do not converge to an image like other samplers do, they simply keep on giving new images with increasing number of steps. Additionaly samplers like DPM Adapative and DPM Fast (which is not fast) do not converge either. &lt;br&gt; Speed matters a lot when we are doing big batches of images. But don't be fooled by study which compare the number of steps of different samplers before they generate a decent image. The number of steps does not correlate with the time it takes when comparing different samplers. Some samplers are super slow and some super fast. E.g. DPM++ converges in a very low number of steps but for each step it is a bit longer than other samplers. Anyway do your own timing tests. The bottomline is that there are heaps of samples, many giving the same images as the DPM++ samplers for much longer computation times. It is hard to justify using anything else than the DPM++ samples. The exception is obviously the ancestral samplers Euler A which is so good that we can not not use it.&lt;br&gt; &lt;a target='_blank' id='links' href='https://www.youtube.com/watch?v=gtr-4CUBfeQ'&gt; One study on samplers&lt;/a&gt; &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='Samplers.png' alt='Samplers'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samplers</t>
+    <t xml:space="preserve">What is it? If you were to diffuse the pixel image directly it would be stupidly VRAM hungry. So we do it in latent space. For this we use a VAE. It's an encoder and decoder. VAE or the encoder decoder is the bit that squish the images into a tiny space, which makes the diffusion a lot less VRAM hungry. &lt;br&gt; What does it do? It encodes the pixel image, to make it small, diffuse, then decode it. It's a pixel image again! This diffuson process is also meant to be more stable (stable diffusion). &lt;br&gt; When should you use it? You always use it. A ckpt file is a Unet, a VAE and a CLIP model. You use a decoder to pull the image from latent space.  &lt;br&gt; When should you use the non standard VAE (as not used the one that came with your model)? If you are doing faces with 1.5, you should probably use the alternate VAE. For instance see the comparisons in the link below. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/stabilityai/sd-vae-ft-ema#visual'&gt;Original vs EMA vs MSE VAE&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models</t>
   </si>
   <si>
     <t xml:space="preserve">17</t>
   </si>
   <si>
-    <t xml:space="preserve">Often after Creating images some images, we need to perform restorations to fix some details. This can be to sharpen the image like when doing upscaling or this can be to fix faces.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restoring</t>
+    <t xml:space="preserve">Community embeddings are just that, not a checkpoint but just a new embeddings resulting from textual inversion. They are useful to add to your prompts to obtain a desired style of object without using a fully fine-tuned model. You can find community models on &lt;a target='_blank' id='links' href='https://huggingface.co/sd-concepts-library'&gt;the sd concept library on Hugginface&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embeddings</t>
   </si>
   <si>
     <t xml:space="preserve">18</t>
   </si>
   <si>
-    <t xml:space="preserve">How do you mix two concepts together? How do you put two styles or objects together? If they are embeddings or hypernetwork you can use them at the same time. E.g. you can use two or more embeddings at the same time. You can use two or more hypernetworks at the same time. If they are checkpoints you have to merge them together.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image2text</t>
+    <t xml:space="preserve">There are a range of models, from the official ones trained on billions of images (LAION-2B, 2billion images, LAION-5B 5.6 billion images...) to the community models based on the official models finetuned for a specific style or object. Some people tune the Unet and decoder, some just tune the Unet.</t>
   </si>
   <si>
     <t xml:space="preserve">19</t>
   </si>
   <si>
-    <t xml:space="preserve">What is it? If you were to diffuse the pixel image directly it would be stupidly VRAM hungry. So we do it in latent space. For this we use a VAE. It's an encoder and decoder. VAE or the encoder decoder is the bit that squish the images into a tiny space, which makes the diffusion a lot less VRAM hungry. &lt;br&gt; What does it do? It encodes the pixel image, to make it small, diffuse, then decode it. It's a pixel image again! This diffuson process is also meant to be more stable (stable diffusion). &lt;br&gt; When should you use it? You always use it. A ckpt file is a Unet, a VAE and a CLIP model. You use a decoder to pull the image from latent space.  &lt;br&gt; When should you use the non standard VAE (as not used the one that came with your model)? If you are doing faces with 1.5, you should probably use the alternate VAE. For instance see the comparisons in the link below. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/stabilityai/sd-vae-ft-ema#visual'&gt;Original vs EMA vs MSE VAE&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Models</t>
+    <t xml:space="preserve">Latent space is huge, how can you get the image you want from there? There are a few ways to explore it including using brute force on a small part near your optimum solution or using random words or parameters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text prompting</t>
   </si>
   <si>
     <t xml:space="preserve">20</t>
   </si>
   <si>
-    <t xml:space="preserve">Community embeddings are just that, not a checkpoint but just a new embeddings resulting from textual inversion. They are useful to add to your prompts to obtain a desired style of object without using a fully fine-tuned model. You can find community models on &lt;a target='_blank' id='links' href='https://huggingface.co/sd-concepts-library'&gt;the sd concept library on Hugginface&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embeddings</t>
+    <t xml:space="preserve">This is when we will use the image caption (as opposed to a single token for all images) to perform the fine tuning. The advantage is that it allows for multi concept training. It is more work though.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caption based</t>
   </si>
   <si>
     <t xml:space="preserve">21</t>
   </si>
   <si>
-    <t xml:space="preserve">There are a range of models, from the official ones trained on billions of images (LAION-2B, 2billion images, LAION-5B 5.6 billion images...) to the community models based on the official models finetuned for a specific style or object. Some people tune the Unet and decoder, some just tune the Unet.</t>
+    <t xml:space="preserve">This is when we will use a single token (as opposed to caption for all images) to perform the fine tuning. The advantage is that it is easier as you don't have to caption all images and less can go wrong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Token based</t>
   </si>
   <si>
     <t xml:space="preserve">22</t>
   </si>
   <si>
-    <t xml:space="preserve">Latent space is huge, how can you get the image you want from there? There are a few ways to explore it including using brute force on a small part near your optimum solution or using random words or parameters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text prompting</t>
+    <t xml:space="preserve">LORA is another way to train to a particular subject or style. The advantage of LORA over Dreambooth is that it only take 6GB of VRAM to run and it only produce two small files of 6MB. The disavantage is that it is a lot less flexible than Dreambooth and it focuses more on faces. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/cloneofsimo/lora'&gt;LORA Repo&lt;/a&gt; &lt;br&gt; &lt;br&gt; Try it on Hugginface: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/spaces/ysharma/Low-rank-Adaptation'&gt;LORA Hugginface Demo&lt;/a&gt; &lt;br&gt; &lt;br&gt; See also Parameter Efficient Fine Tuning (PEFT). &lt;br&gt; &lt;br&gt; Further ressource: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/huggingface/peft'&gt;PEFT github project&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LORA</t>
   </si>
   <si>
     <t xml:space="preserve">23</t>
   </si>
   <si>
-    <t xml:space="preserve">This is when we will use the image caption (as opposed to a single token for all images) to perform the fine tuning. The advantage is that it allows for multi concept training. It is more work though.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caption based</t>
+    <t xml:space="preserve">Hypernetwork is sort of a way to train a model without chaging its weights. Sounds impossible right? But here after the image has been created, the hypernetwork comes in, another small network that modifies the images a certain way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypernetwork</t>
   </si>
   <si>
     <t xml:space="preserve">24</t>
   </si>
   <si>
-    <t xml:space="preserve">This is when we will use a single token (as opposed to caption for all images) to perform the fine tuning. The advantage is that it is easier as you don't have to caption all images and less can go wrong.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Token based</t>
+    <t xml:space="preserve">Textual Inversion does not change the model weights but simply creates an embedding; a new keyword that represents data the model already knows. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/rinongal/textual_inversion'&gt;Textual Inversion Paper&lt;/a&gt; &lt;br&gt; &lt;br&gt; Try it on colab: &lt;br&gt; &lt;a target='_blank' id='links' href='https://colab.research.google.com/github/huggingface/notebooks/blob/main/diffusers/stable_diffusion_textual_inversion_library_navigator.ipynb'&gt;Textual Inversion Colab&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Textual Inversion</t>
   </si>
   <si>
     <t xml:space="preserve">25</t>
   </si>
   <si>
-    <t xml:space="preserve">LORA is another way to train to a particular subject or style. The advantage of LORA over Dreambooth is that it only take 6GB of VRAM to run and it only produce two small files of 6MB. The disavantage is that it is a lot less flexible than Dreambooth and it focuses more on faces. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/cloneofsimo/lora'&gt;LORA Repo&lt;/a&gt; &lt;br&gt; &lt;br&gt; Try it on Hugginface: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/spaces/ysharma/Low-rank-Adaptation'&gt;LORA Hugginface Demo&lt;/a&gt; &lt;br&gt; &lt;br&gt; See also Parameter Efficient Fine Tuning (PEFT). &lt;br&gt; &lt;br&gt; Further ressource: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/huggingface/peft'&gt;PEFT github project&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LORA</t>
+    <t xml:space="preserve">Img2Img is essentially instead of starting with a pure noise image, you start with an already existing image, add some noise and then denoise it back. This is a way to obtain a similar yet different image that depends on the prompt you use. The higher the denoising strength, the more different the image obtained will be.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Img2Img</t>
   </si>
   <si>
     <t xml:space="preserve">26</t>
   </si>
   <si>
-    <t xml:space="preserve">Hypernetwork is sort of a way to train a model without chaging its weights. Sounds impossible right? But here after the image has been created, the hypernetwork comes in, another small network that modifies the images a certain way.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypernetwork</t>
+    <t xml:space="preserve">Depth2Image essentially does img2img but also taking into account the depth. The depth is estimated using the monocular depth estimator MIDAS. The great thing about depth2image is that it preserves composition much better than img2img. &lt; style='width: 25%; height: 25%' src='depthmap.png' alt='Depth Map'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depth2Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controlling</t>
   </si>
   <si>
     <t xml:space="preserve">27</t>
   </si>
   <si>
-    <t xml:space="preserve">Textual Inversion does not change the model weights but simply creates an embedding; a new keyword that represents data the model already knows. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/rinongal/textual_inversion'&gt;Textual Inversion Paper&lt;/a&gt; &lt;br&gt; &lt;br&gt; Try it on colab: &lt;br&gt; &lt;a target='_blank' id='links' href='https://colab.research.google.com/github/huggingface/notebooks/blob/main/diffusers/stable_diffusion_textual_inversion_library_navigator.ipynb'&gt;Textual Inversion Colab&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Textual Inversion</t>
+    <t xml:space="preserve">Prompts are the keywords you provide stable diffusion to guide the process. They come in two flavours: positive prompts and negative prompts. There are a number of ways to manipulate and edit prompt such as imgwith prompt emphasis, prompt delay or alternating words. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/AUTOMATIC1111/stable-diffusion-webui/wiki/Features'&gt;Webui wiki&lt;/a&gt; &lt;br&gt; You can find prompt inspiration from:   &lt;br&gt; &lt;a target='_blank' id='links' href='https://libraire.ai/'&gt;libraire.ai&lt;/a&gt;    &lt;br&gt; &lt;a target='_blank' id='links' href='https://lexica.art/'&gt;lexica.art&lt;/a&gt;   &lt;br&gt; &lt;a target='_blank' id='links' href='https://www.krea.ai/'&gt;krea.ai&lt;/a&gt;   &lt;br&gt; &lt;a target='_blank' id='links' href='https://prompthero.com/'&gt;prompthero.com&lt;/a&gt;   &lt;br&gt; &lt;a target='_blank' id='links' href='https://openart.ai/'&gt;openart.ai&lt;/a&gt;   &lt;br&gt; &lt;a target='_blank' id='links' href='https://pagebrain.ai/promptsearch/'&gt;pagebrain.ai&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prompt editing</t>
   </si>
   <si>
     <t xml:space="preserve">28</t>
   </si>
   <si>
-    <t xml:space="preserve">Img2Img is essentially instead of starting with a pure noise image, you start with an already existing image, add some noise and then denoise it back. This is a way to obtain a similar yet different image that depends on the prompt you use. The higher the denoising strength, the more different the image obtained will be.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Img2Img</t>
+    <t xml:space="preserve">Sometimes you want to find the words to describe an image or you want to caption a set of image for training. This is where Image2text comes in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image 2 text</t>
   </si>
   <si>
     <t xml:space="preserve">29</t>
   </si>
   <si>
-    <t xml:space="preserve">Depth2Image essentially does img2img but also taking into account the depth. The depth is estimated using the monocular depth estimator MIDAS. The great thing about depth2image is that it preserves composition much better than img2img. &lt; style='width: 25%; height: 25%' src='depthmap.png' alt='Depth Map'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depth2Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controlling</t>
+    <t xml:space="preserve">CLIP Interrogator allows you to find the prompts that best describe an existing image. This is helpful in crafting your own prompts. This is also useful programatically labelling images whilst training. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/pharmapsychotic/clip-interrogator'&gt;CLIP Interrogator&lt;/a&gt; &lt;br&gt; &lt;br&gt; Try it here: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/spaces/pharma/CLIP-Interrogator'&gt;CLIP Interrogator Gradio Demo&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIP Interrogation</t>
   </si>
   <si>
     <t xml:space="preserve">30</t>
   </si>
   <si>
-    <t xml:space="preserve">Prompts are the keywords you provide stable diffusion to guide the process. They come in two flavours: positive prompts and negative prompts. There are a number of ways to manipulate and edit prompt such as imgwith prompt emphasis, prompt delay or alternating words. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/AUTOMATIC1111/stable-diffusion-webui/wiki/Features'&gt;Webui wiki&lt;/a&gt; &lt;br&gt; You can find prompt inspiration from:   &lt;br&gt; &lt;a target='_blank' id='links' href='https://libraire.ai/'&gt;libraire.ai&lt;/a&gt;    &lt;br&gt; &lt;a target='_blank' id='links' href='https://lexica.art/'&gt;lexica.art&lt;/a&gt;   &lt;br&gt; &lt;a target='_blank' id='links' href='https://www.krea.ai/'&gt;krea.ai&lt;/a&gt;   &lt;br&gt; &lt;a target='_blank' id='links' href='https://prompthero.com/'&gt;prompthero.com&lt;/a&gt;   &lt;br&gt; &lt;a target='_blank' id='links' href='https://openart.ai/'&gt;openart.ai&lt;/a&gt;   &lt;br&gt; &lt;a target='_blank' id='links' href='https://pagebrain.ai/promptsearch/'&gt;pagebrain.ai&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prompt editing</t>
+    <t xml:space="preserve">BLIP Image Captioning allows you to find the prompts that would best describe an existing image. This is helpful in crafting your own prompts. This is also useful programatically labelling images whilst training. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://ahmed-sabir.medium.com/paper-summary-blip-bootstrapping-language-image-pre-training-for-unified-vision-language-c1df6f6c9166'&gt;BLIP Image Captioning&lt;/a&gt; &lt;br&gt; &lt;br&gt; Try it: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/spaces/Salesforce/BLIP'&gt;BLIP Gradio Demo&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLIP Image Captioning</t>
   </si>
   <si>
     <t xml:space="preserve">31</t>
   </si>
   <si>
-    <t xml:space="preserve">Sometimes you want to find the words to describe an image or you want to caption a set of image for training. This is where Image2text comes in.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image 2 text</t>
+    <t xml:space="preserve">Prompt Weighting can be used in several interfaces for stable diffusion. The syntax is (Salvador Dali:1.1), where here I give a weight of Salvador Dali of 1.1 compared to pixel art of 1. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='PromptWeighting.png' alt='Prompt Weighting'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prompt Weighting</t>
   </si>
   <si>
     <t xml:space="preserve">32</t>
   </si>
   <si>
-    <t xml:space="preserve">CLIP Interrogator allows you to find the prompts that best describe an existing image. This is helpful in crafting your own prompts. This is also useful programatically labelling images whilst training. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/pharmapsychotic/clip-interrogator'&gt;CLIP Interrogator&lt;/a&gt; &lt;br&gt; &lt;br&gt; Try it here: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/spaces/pharma/CLIP-Interrogator'&gt;CLIP Interrogator Gradio Demo&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLIP Interrogation</t>
+    <t xml:space="preserve">Prompt Delay can be used in several interfaces of stable diffusion. It delays a keywords up to a number of steps. The syntax is as such [Salvador Dali:Pixel Art:0.2], where her Salvador Dali is used for 20% of the process and Pixel Art is used for the remaining 80%. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='PromptDelay.png' alt='Prompt Delay'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prompt Delay</t>
   </si>
   <si>
     <t xml:space="preserve">33</t>
   </si>
   <si>
-    <t xml:space="preserve">BLIP Image Captioning allows you to find the prompts that would best describe an existing image. This is helpful in crafting your own prompts. This is also useful programatically labelling images whilst training. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://ahmed-sabir.medium.com/paper-summary-blip-bootstrapping-language-image-pre-training-for-unified-vision-language-c1df6f6c9166'&gt;BLIP Image Captioning&lt;/a&gt; &lt;br&gt; &lt;br&gt; Try it: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/spaces/Salesforce/BLIP'&gt;BLIP Gradio Demo&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLIP Image Captioning</t>
+    <t xml:space="preserve">Alternating Words can be used in Auto1111. Here two keywords are alternated at each steps. For instance, with the syntax [Salvador Dali|Pixel Art], we alternate between Salvador Dali and Pixel Art at each time step. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='AlternatingWords.png' alt='Alternating Words'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternating Words</t>
   </si>
   <si>
     <t xml:space="preserve">34</t>
   </si>
   <si>
-    <t xml:space="preserve">Prompt Weighting can be used in several interfaces for stable diffusion. The syntax is (Salvador Dali:1.1), where here I give a weight of Salvador Dali of 1.1 compared to pixel art of 1. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='PromptWeighting.png' alt='Prompt Weighting'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prompt Weighting</t>
+    <t xml:space="preserve">Negative Prompts are what you want the model to avoid. Many negative prompts have some kind of impacts. Some meaningless gibberish negative prompts have more impact than meaningful ones. It is really hard to say what negative prompts do or whether they will work without brute forcing them. When you specifically mention too many hands or arms in the negative prompt, they will sometimes be removed from the frame altogether. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='NegativePrompt.png' alt='Negative Prompt'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative Prompts</t>
   </si>
   <si>
     <t xml:space="preserve">35</t>
   </si>
   <si>
-    <t xml:space="preserve">Prompt Delay can be used in several interfaces of stable diffusion. It delays a keywords up to a number of steps. The syntax is as such [Salvador Dali:Pixel Art:0.2], where her Salvador Dali is used for 20% of the process and Pixel Art is used for the remaining 80%. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='PromptDelay.png' alt='Prompt Delay'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prompt Delay</t>
+    <t xml:space="preserve">Text based editing</t>
   </si>
   <si>
     <t xml:space="preserve">36</t>
   </si>
   <si>
-    <t xml:space="preserve">Alternating Words can be used in Auto1111. Here two keywords are alternated at each steps. For instance, with the syntax [Salvador Dali|Pixel Art], we alternate between Salvador Dali and Pixel Art at each time step. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='AlternatingWords.png' alt='Alternating Words'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternating Words</t>
+    <t xml:space="preserve">InstructPix2Pix is a way to tell stable diffusion what to change. Say you have a really nice scenery, but you change your mind and want the field to be a forest. Just ask, 'Change the field to a forest'.  &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/timothybrooks/instruct-pix2pix'&gt;InstructPix2Pix&lt;/a&gt; &lt;br&gt; &lt;br&gt; Here I tell it to 'Make it Christmas'. I use the ContolNet IP2P. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='christmas.jpg' alt='Make it Christmas'&gt; &lt;br&gt; &lt;br&gt; Another alternative is Imagic &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/ShivamShrirao/diffusers/tree/main/examples/imagic'&gt; Imagic Repo &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InstructPix2Pix</t>
   </si>
   <si>
     <t xml:space="preserve">37</t>
   </si>
   <si>
-    <t xml:space="preserve">Negative Prompts are what you want the model to avoid. Many negative prompts have some kind of impacts. Some meaningless gibberish negative prompts have more impact than meaningful ones. It is really hard to say what negative prompts do or whether they will work without brute forcing them. When you specifically mention too many hands or arms in the negative prompt, they will sometimes be removed from the frame altogether. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='NegativePrompt.png' alt='Negative Prompt'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative Prompts</t>
+    <t xml:space="preserve">Loopback is when you feed the output of image2image to the next round of image2image. Why would you want to do that? Why not just do a longer image2image? What is the difference? Here you can adjust the denoising strenght factor between each run. So you can progressively reduce the amount of changes between images. &lt;br&gt; &lt;br&gt; &lt;img style='width: 100%; height: 100%' src='loopback.jpg' alt='Loopback'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loopback</t>
   </si>
   <si>
     <t xml:space="preserve">38</t>
   </si>
   <si>
-    <t xml:space="preserve">Text based editing</t>
+    <t xml:space="preserve">Inpainting allows you to change small details within your composition. Say you are doing a scenery and want to change part of a river, you can inpaint it until you get what you want. Same if you are doing a character and want to change the hands or add a hat, you can inpaint it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inpainting</t>
   </si>
   <si>
     <t xml:space="preserve">39</t>
   </si>
   <si>
-    <t xml:space="preserve">InstructPix2Pix is a way to tell stable diffusion what to change. Say you have a really nice scenery, but you change your mind and want the field to be a forest. Just ask, 'Change the field to a forest'.  &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/timothybrooks/instruct-pix2pix'&gt;InstructPix2Pix&lt;/a&gt; &lt;br&gt; &lt;br&gt; Here I tell it to 'Make it Christmas'. I use the ContolNet IP2P. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='christmas.jpg' alt='Make it Christmas'&gt; &lt;br&gt; &lt;br&gt; Another alternative is Imagic &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/ShivamShrirao/diffusers/tree/main/examples/imagic'&gt; Imagic Repo &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InstructPix2Pix</t>
+    <t xml:space="preserve">Outpainting allows you to extend the frame of your image. Say you get a really nice character but you want to zoom out to show it within a scenery. You can slowly outpaint the entire scenery. You will end up with a highly detailed character within a consistent landscape. Here I recommend on of the ancestral samplers with at least 100 steps and a high denoising strength say 0.8. You can use the outpainting script in Auto1111 or SDNext. Left is original, right is outpainted to the left. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 40%; height: 25%' src='outpainted.jpg' alt='Outpainted'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outpainting</t>
   </si>
   <si>
     <t xml:space="preserve">40</t>
   </si>
   <si>
-    <t xml:space="preserve">Loopback is when you feed the output of image2image to the next round of image2image. Why would you want to do that? Why not just do a longer image2image? What is the difference? Here you can adjust the denoising strenght factor between each run. So you can progressively reduce the amount of changes between images. &lt;br&gt; &lt;br&gt; &lt;img style='width: 100%; height: 100%' src='loopback.jpg' alt='Loopback'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loopback</t>
+    <t xml:space="preserve">Img2Img is so versatile. If you like the general composition of the image but want change the details just img2img it with a lowish denoising strength. If you want to change it a lot more just use a higher denoising strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Img2Img </t>
   </si>
   <si>
     <t xml:space="preserve">41</t>
   </si>
   <si>
-    <t xml:space="preserve">Inpainting allows you to change small details within your composition. Say you are doing a scenery and want to change part of a river, you can inpaint it until you get what you want. Same if you are doing a character and want to change the hands or add a hat, you can inpaint it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inpainting</t>
+    <t xml:space="preserve">You can tune a new checkpoint based on a single token that represents all your images e.g. mycat. You may tune just the Unet or both the Unet and decoder. This will require at least 15GB VRAM and will produce a file from 2GB to 5GB. Dreambooth allows you to tune the models weights to a particular set of images. The key difference between dreambooth and more traditional fine tuning is that in dreambooth you don't need to caption the images. You just need to use a keyword that describes all images, for example, mycatlala. You have to prepare 20+ images (usually in a square format 512x512 or 768x768) and then fine tune a stable diffusion checkpoint on it. This will require a lot of VRAM (typically above 15GB) and will produce a file from 2GB to 5GB. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://dreambooth.github.io/'&gt;Dreambooth Paper&lt;/a&gt; &lt;br&gt; &lt;br&gt; Try it on colab: &lt;br&gt; &lt;a target='_blank' id='links' href='https://colab.research.google.com/github/TheLastBen/fast-stable-diffusion/blob/main/fast-DreamBooth.ipynb'&gt;Dreambooth Colab&lt;/a&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://www.youtube.com/watch?v=7m__xadX0z0'&gt;Guide from Aitrepreneur&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dreambooth</t>
   </si>
   <si>
     <t xml:space="preserve">42</t>
   </si>
   <si>
-    <t xml:space="preserve">Outpainting allows you to extend the frame of your image. Say you get a really nice character but you want to zoom out to show it within a scenery. You can slowly outpaint the entire scenery. You will end up with a highly detailed character within a consistent landscape. Here I recommend on of the ancestral samplers with at least 100 steps and a high denoising strength say 0.8. You can use the outpainting script in Auto1111 or SDNext. Left is original, right is outpainted to the left. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 40%; height: 25%' src='outpainted.jpg' alt='Outpainted'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outpainting</t>
+    <t xml:space="preserve">You can tune a new checkpoint based on image captions. You may tune just the Unet or both the Unet and the decoder. This will require at least 15GB VRAM and will produce a file from 2GB to 5GB. You can use conventional dreambooth codes to do this but only the ones where you have the option to use caption not tokens for the fine tuning. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/victorchall/EveryDream-trainer'&gt;Every Dream Trainer&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine tuning </t>
   </si>
   <si>
     <t xml:space="preserve">43</t>
   </si>
   <si>
-    <t xml:space="preserve">Img2Img is so versatile. If you like the general composition of the image but want change the details just img2img it with a lowish denoising strength. If you want to change it a lot more just use a higher denoising strength.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Img2Img </t>
+    <t xml:space="preserve">Merging Checkpoints allows you to mix two models together. You don't have to mix 50/50, you can mix anywhere from 0% to 100%. You can produce amazing new styles by merging models. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unweighted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merging</t>
   </si>
   <si>
     <t xml:space="preserve">44</t>
   </si>
   <si>
-    <t xml:space="preserve">You can tune a new checkpoint based on a single token that represents all your images e.g. mycat. You may tune just the Unet or both the Unet and decoder. This will require at least 15GB VRAM and will produce a file from 2GB to 5GB. Dreambooth allows you to tune the models weights to a particular set of images. The key difference between dreambooth and more traditional fine tuning is that in dreambooth you don't need to caption the images. You just need to use a keyword that describes all images, for example, mycatlala. You have to prepare 20+ images (usually in a square format 512x512 or 768x768) and then fine tune a stable diffusion checkpoint on it. This will require a lot of VRAM (typically above 15GB) and will produce a file from 2GB to 5GB. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://dreambooth.github.io/'&gt;Dreambooth Paper&lt;/a&gt; &lt;br&gt; &lt;br&gt; Try it on colab: &lt;br&gt; &lt;a target='_blank' id='links' href='https://colab.research.google.com/github/TheLastBen/fast-stable-diffusion/blob/main/fast-DreamBooth.ipynb'&gt;Dreambooth Colab&lt;/a&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://www.youtube.com/watch?v=7m__xadX0z0'&gt;Guide from Aitrepreneur&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dreambooth</t>
+    <t xml:space="preserve">Training your hypernetwork is easy using Auto1111. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://www.youtube.com/watch?v=1mEggRgRgfg'&gt;Guide from Aitrepreneur&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Hypernetwork</t>
   </si>
   <si>
     <t xml:space="preserve">45</t>
   </si>
   <si>
-    <t xml:space="preserve">You can tune a new checkpoint based on image captions. You may tune just the Unet or both the Unet and the decoder. This will require at least 15GB VRAM and will produce a file from 2GB to 5GB. You can use conventional dreambooth codes to do this but only the ones where you have the option to use caption not tokens for the fine tuning. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/victorchall/EveryDream-trainer'&gt;Every Dream Trainer&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine tuning </t>
+    <t xml:space="preserve">You can use multiple hypernetwork at once! &lt;br&gt; &lt;br&gt; Further ressourcesf: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/antis0007/sd-webui-multiple-hypernetworks'&gt;Multiple hypernetworks&lt;/a&gt; &lt;br&gt; &lt;br&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple Hypernetworks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using multiple</t>
   </si>
   <si>
     <t xml:space="preserve">46</t>
   </si>
   <si>
-    <t xml:space="preserve">Merging Checkpoints allows you to mix two models together. You don't have to mix 50/50, you can mix anywhere from 0% to 100%. You can produce amazing new styles by merging models. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unweighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merging</t>
+    <t xml:space="preserve">LORA is another way to train to a particular subject or style. The advantage of LORA over Dreambooth is that it only take 6GB of VRAM to run and it only produce two small files of 6MB. The disavantage is that it is a lot less flexible than Dreambooth and it focuses more on faces. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/cloneofsimo/lora'&gt;LORA Repo&lt;/a&gt; &lt;br&gt; &lt;br&gt; Try it on Hugginface: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/spaces/ysharma/Low-rank-Adaptation'&gt;LORA Hugginface Demo&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LORA training</t>
   </si>
   <si>
     <t xml:space="preserve">47</t>
   </si>
   <si>
-    <t xml:space="preserve">Training your hypernetwork is easy using Auto1111. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://www.youtube.com/watch?v=1mEggRgRgfg'&gt;Guide from Aitrepreneur&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One Hypernetwork</t>
+    <t xml:space="preserve">You can train an embedding from just a couple of photos (5-10). &lt;br&gt; &lt;br&gt; &lt;a target='_blank' id='links' href='https://www.youtube.com/watch?v=7OnZ_I5dYgw'&gt; Guide from Aitrepreneur &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Embedding</t>
   </si>
   <si>
     <t xml:space="preserve">48</t>
   </si>
   <si>
-    <t xml:space="preserve">You can use multiple hypernetwork at once! &lt;br&gt; &lt;br&gt; Further ressourcesf: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/antis0007/sd-webui-multiple-hypernetworks'&gt;Multiple hypernetworks&lt;/a&gt; &lt;br&gt; &lt;br&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple Hypernetworks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using multiple</t>
+    <t xml:space="preserve">You can use multiple embeddings at the same time. Just keep adding the different keywords of your embedding to your prompt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple Embedding</t>
   </si>
   <si>
     <t xml:space="preserve">49</t>
   </si>
   <si>
-    <t xml:space="preserve">LORA is another way to train to a particular subject or style. The advantage of LORA over Dreambooth is that it only take 6GB of VRAM to run and it only produce two small files of 6MB. The disavantage is that it is a lot less flexible than Dreambooth and it focuses more on faces. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/cloneofsimo/lora'&gt;LORA Repo&lt;/a&gt; &lt;br&gt; &lt;br&gt; Try it on Hugginface: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/spaces/ysharma/Low-rank-Adaptation'&gt;LORA Hugginface Demo&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LORA training</t>
+    <t xml:space="preserve">A negative embedding is an embedding that you will use as a negative prompt. For instance, there is a bad-art negative embedding. That negative embedding is useful to avoid low artistic aspects to creep up in your generated images.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative Embedding</t>
   </si>
   <si>
     <t xml:space="preserve">50</t>
   </si>
   <si>
-    <t xml:space="preserve">You can train an embedding from just a couple of photos (5-10). &lt;br&gt; &lt;br&gt; &lt;a target='_blank' id='links' href='https://www.youtube.com/watch?v=7OnZ_I5dYgw'&gt; Guide from Aitrepreneur &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Embedding</t>
+    <t xml:space="preserve">Depth Preserving. Say you want to cortoonize a photo you have. If you put it in conventional image2image, with a prompt saying drawing of a person riding a bike, it will change completely the phot. It won't keep the proportions and the bike and the rider will move. Not so with depth preserving img2img. Here you will get exactly the same place as in the photo. This allows to create great variations whilst keeping your composition. In the one below, I asked for Moses getting a message from the cloud on his tablet. It keeps everything exaclty where they are but change the stone tablet to a modern tablet. &lt;br&gt; &lt;br&gt; &lt;img style='width: 50%; height: 50%' src='moses.png' alt='Play of word on Moses'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depth Preserving Img2Img</t>
   </si>
   <si>
     <t xml:space="preserve">51</t>
   </si>
   <si>
-    <t xml:space="preserve">You can use multiple embeddings at the same time. Just keep adding the different keywords of your embedding to your prompt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple Embedding</t>
+    <t xml:space="preserve">Ramacri is a really nice model for upscaling. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='remacri.png' alt='Remacri'&gt; &lt;br&gt; Download Remacri from: &lt;br&gt; &lt;a target='_blank' id='links' href='https://upscale.wiki/wiki/Model_Database'&gt; Upscale Wiki Model Database &lt;/a&gt; &lt;br&gt; &lt;br&gt; RealESRGAN is an algorithm based on ESRGAN. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='resergan.png' alt='R-ESRGAN'&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/xinntao/Real-ESRGAN'&gt;Real ESRGAN&lt;/a&gt; &lt;br&gt; Try it here: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/spaces/akhaliq/Real-ESRGAN'&gt;Real-ESRGAN Gradio Demo&lt;/a&gt; &lt;br&gt; &lt;br&gt; ESRGAN is a great model for upscaling. &lt;br&gt; Download ESRGAN from: &lt;br&gt; &lt;a target='_blank' id='links' href='https://upscale.wiki/wiki/Official_Research_Models'&gt; Official Research Model Database &lt;/a&gt;  &lt;br&gt; &lt;br&gt; Lollypop is a really nice model for upscaling. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='lollypop.png' alt='Lollypop'&gt; &lt;br&gt; Download Lollypop from: &lt;br&gt; &lt;a target='_blank' id='links' href='https://upscale.wiki/wiki/Model_Database'&gt; Upscale Wiki Model Database &lt;/a&gt; &lt;br&gt; &lt;br&gt; I like Universal Upscaler. I like it even more as most upscalers finished up with light touch of SD upscale. It comes into different level of sharpness. Universal Upscaler Neutral, Universal Upscaler Sharp, Universal Upscaler Sharper. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='universalupscaler.png' alt='Universal Upscaler'&gt; &lt;br&gt; Download Universal Upscaler from: &lt;br&gt; &lt;a target='_blank' id='links' href='https://upscale.wiki/wiki/Model_Database'&gt; Upscale Wiki Model Database &lt;/a&gt; &lt;br&gt; &lt;br&gt; Ultrasharp is a fantastic model for upscaling. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='ultrasharp.png' alt='Ultrasharp'&gt; &lt;br&gt; Download Ultrasharp from: &lt;br&gt; &lt;a target='_blank' id='links' href='https://upscale.wiki/wiki/Model_Database'&gt; Upscale Wiki Model Database &lt;/a&gt; &lt;br&gt; &lt;br&gt; Uniscale is good for upscaling. It comes in different setting depending whether you want a more sharp or soft upscale. Uniscale balanced, Uniscale strong, Uniscale V2 Soft, Uniscale V2 Moderate, Uniscale V2 Sharp, Uniscale NR Balanced, Uniscale NR Strong, Uniscale Interp. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='uniscale.png' alt='Univscale'&gt; &lt;br&gt; Download Uniscale models from: &lt;br&gt; &lt;a target='_blank' id='links' href='https://upscale.wiki/wiki/Model_Database'&gt; Upscale Wiki Model Database &lt;/a&gt; &lt;br&gt; &lt;br&gt; NMKD superscale is a great model for upscaling. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='nmkd.png' alt='NMKD'&gt; &lt;br&gt; Download NMKD superscale from: &lt;br&gt; &lt;a target='_blank' id='links' href='https://upscale.wiki/wiki/Model_Database'&gt; Upscale Wiki Model Database &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESRGAN</t>
   </si>
   <si>
     <t xml:space="preserve">52</t>
   </si>
   <si>
-    <t xml:space="preserve">A negative embedding is an embedding that you will use as a negative prompt. For instance, there is a bad-art negative embedding. That negative embedding is useful to avoid low artistic aspects to creep up in your generated images.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative Embedding</t>
+    <t xml:space="preserve">Essentially you upscale with a conventional upscaler and then you add details with stable diffusion tile by tile as doing the whole upscaled version would make you run out of VRAM. You can use any checkpoint to do this. So you could generate your image with 1.5 and upscale with the depth model. You could generated with 2.1 and upscale with Robodiffusion..... &lt;br&gt; &lt;br&gt; Honorable mention: SD 2.0 4x Upscaler &lt;br&gt; SD 2.0 4x Upscaler is the official model from stability.ai. It uses a lot of VRAM so not many are using it atm. &lt;br&gt; You can also do upscaling without any optimisation using Denoising Diffusion Null-Space Model (DDNM). Super super slow took me ages to 4x upscale a 512x512 image on a T4. You also need to use a class label you can find e.g. &lt;a target='_blank' id='links' href='https://gist.github.com/yrevar/942d3a0ac09ec9e5eb3a'&gt;here&lt;/a&gt;. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/wyhuai/DDNM'&gt;DDNM Github repo&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD Upscale</t>
   </si>
   <si>
     <t xml:space="preserve">53</t>
   </si>
   <si>
-    <t xml:space="preserve">Depth Preserving. Say you want to cortoonize a photo you have. If you put it in conventional image2image, with a prompt saying drawing of a person riding a bike, it will change completely the phot. It won't keep the proportions and the bike and the rider will move. Not so with depth preserving img2img. Here you will get exactly the same place as in the photo. This allows to create great variations whilst keeping your composition. In the one below, I asked for Moses getting a message from the cloud on his tablet. It keeps everything exaclty where they are but change the stone tablet to a modern tablet. &lt;br&gt; &lt;br&gt; &lt;img style='width: 50%; height: 50%' src='moses.png' alt='Play of word on Moses'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depth Preserving Img2Img</t>
+    <t xml:space="preserve">Essentially you upscale with a conventional upscaler and then you add details with stable diffusion tile by tile as doing the whole upscaled version would make you run out of VRAM. You can use any checkpoint to do this. So you could generate your image with 1.5 and upscale with the depth model. You could generated with 2.1 and upscale with Robodiffusion..... You ask, is it really upscaling when we are adding in new details? Well the distinction between upscaling and img2img is not binary, it depends on the denoising strength. In the image below, the first one is upscaled with low denoising strength (0.3) and the second one with higher denoising strength (0.6) which leads to the model making things up in the image. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 75%; height: 75%' src='controlnettile.jpg' alt='Upscaled with low denoising strenght'&gt; &lt;img style='width: 75%; height: 75%' src='higherdenoisingstrength.jpeg' alt='Upscaled with high denoising strenght'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD Upscale </t>
   </si>
   <si>
     <t xml:space="preserve">54</t>
   </si>
   <si>
-    <t xml:space="preserve">Ramacri is a really nice model for upscaling. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='remacri.png' alt='Remacri'&gt; &lt;br&gt; Download Remacri from: &lt;br&gt; &lt;a target='_blank' id='links' href='https://upscale.wiki/wiki/Model_Database'&gt; Upscale Wiki Model Database &lt;/a&gt; &lt;br&gt; &lt;br&gt; RealESRGAN is an algorithm based on ESRGAN. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='resergan.png' alt='R-ESRGAN'&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/xinntao/Real-ESRGAN'&gt;Real ESRGAN&lt;/a&gt; &lt;br&gt; Try it here: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/spaces/akhaliq/Real-ESRGAN'&gt;Real-ESRGAN Gradio Demo&lt;/a&gt; &lt;br&gt; &lt;br&gt; ESRGAN is a great model for upscaling. &lt;br&gt; Download ESRGAN from: &lt;br&gt; &lt;a target='_blank' id='links' href='https://upscale.wiki/wiki/Official_Research_Models'&gt; Official Research Model Database &lt;/a&gt;  &lt;br&gt; &lt;br&gt; Lollypop is a really nice model for upscaling. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='lollypop.png' alt='Lollypop'&gt; &lt;br&gt; Download Lollypop from: &lt;br&gt; &lt;a target='_blank' id='links' href='https://upscale.wiki/wiki/Model_Database'&gt; Upscale Wiki Model Database &lt;/a&gt; &lt;br&gt; &lt;br&gt; I like Universal Upscaler. I like it even more as most upscalers finished up with light touch of SD upscale. It comes into different level of sharpness. Universal Upscaler Neutral, Universal Upscaler Sharp, Universal Upscaler Sharper. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='universalupscaler.png' alt='Universal Upscaler'&gt; &lt;br&gt; Download Universal Upscaler from: &lt;br&gt; &lt;a target='_blank' id='links' href='https://upscale.wiki/wiki/Model_Database'&gt; Upscale Wiki Model Database &lt;/a&gt; &lt;br&gt; &lt;br&gt; Ultrasharp is a fantastic model for upscaling. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='ultrasharp.png' alt='Ultrasharp'&gt; &lt;br&gt; Download Ultrasharp from: &lt;br&gt; &lt;a target='_blank' id='links' href='https://upscale.wiki/wiki/Model_Database'&gt; Upscale Wiki Model Database &lt;/a&gt; &lt;br&gt; &lt;br&gt; Uniscale is good for upscaling. It comes in different setting depending whether you want a more sharp or soft upscale. Uniscale balanced, Uniscale strong, Uniscale V2 Soft, Uniscale V2 Moderate, Uniscale V2 Sharp, Uniscale NR Balanced, Uniscale NR Strong, Uniscale Interp. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='uniscale.png' alt='Univscale'&gt; &lt;br&gt; Download Uniscale models from: &lt;br&gt; &lt;a target='_blank' id='links' href='https://upscale.wiki/wiki/Model_Database'&gt; Upscale Wiki Model Database &lt;/a&gt; &lt;br&gt; &lt;br&gt; NMKD superscale is a great model for upscaling. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='nmkd.png' alt='NMKD'&gt; &lt;br&gt; Download NMKD superscale from: &lt;br&gt; &lt;a target='_blank' id='links' href='https://upscale.wiki/wiki/Model_Database'&gt; Upscale Wiki Model Database &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESRGAN</t>
+    <t xml:space="preserve">ESRGAN-based</t>
   </si>
   <si>
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">Essentially you upscale with a conventional upscaler and then you add details with stable diffusion tile by tile as doing the whole upscaled version would make you run out of VRAM. You can use any checkpoint to do this. So you could generate your image with 1.5 and upscale with the depth model. You could generated with 2.1 and upscale with Robodiffusion..... &lt;br&gt; &lt;br&gt; Honorable mention: SD 2.0 4x Upscaler &lt;br&gt; SD 2.0 4x Upscaler is the official model from stability.ai. It uses a lot of VRAM so not many are using it atm. &lt;br&gt; You can also do upscaling without any optimisation using Denoising Diffusion Null-Space Model (DDNM). Super super slow took me ages to 4x upscale a 512x512 image on a T4. You also need to use a class label you can find e.g. &lt;a target='_blank' id='links' href='https://gist.github.com/yrevar/942d3a0ac09ec9e5eb3a'&gt;here&lt;/a&gt;. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/wyhuai/DDNM'&gt;DDNM Github repo&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD Upscale</t>
+    <t xml:space="preserve">DPM means Diffusion Probabilistic Models. DPM++ means that it uses a new solver that speeds up guided sampling. Anyway these are super fast, so why use Euler, LMS, PLMS or DDIM when you can get the result in much fewer steps with DPM++ samplers. Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://arxiv.org/pdf/2211.01095.pdf'&gt;DPM-Solver ++ paper&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPM++</t>
   </si>
   <si>
     <t xml:space="preserve">56</t>
   </si>
   <si>
-    <t xml:space="preserve">Essentially you upscale with a conventional upscaler and then you add details with stable diffusion tile by tile as doing the whole upscaled version would make you run out of VRAM. You can use any checkpoint to do this. So you could generate your image with 1.5 and upscale with the depth model. You could generated with 2.1 and upscale with Robodiffusion..... You ask, is it really upscaling when we are adding in new details? Well the distinction between upscaling and img2img is not binary, it depends on the denoising strength. In the image below, the first one is upscaled with low denoising strength (0.3) and the second one with higher denoising strength (0.6) which leads to the model making things up in the image. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 75%; height: 75%' src='controlnettile.jpg' alt='Upscaled with low denoising strenght'&gt; &lt;img style='width: 75%; height: 75%' src='higherdenoisingstrength.jpeg' alt='Upscaled with high denoising strenght'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD Upscale </t>
+    <t xml:space="preserve">All samplers can come in an Ancestral flavour meaning a little bit of noise is added at each steps. These samplers do not converge to an image like other samplers do, they simply keep on giving new images with increasing number of steps. Often they give a nice image with a very low step count.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancestral</t>
   </si>
   <si>
     <t xml:space="preserve">57</t>
   </si>
   <si>
-    <t xml:space="preserve">ESRGAN-based</t>
+    <t xml:space="preserve">DPM++ 2M means that it is a multi step DPM++ solver. It perform better for large guidance scale. You can also use the Karras version though they seem to produce very similar images. You can see below that different samplers will lead to different results (especially if they are ancestral samplers). &lt;br&gt; &lt;br&gt; &lt;img style='width: 100%; height: 100%' src='samplers.jpeg' alt='Samplers'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://arxiv.org/pdf/2211.01095.pdf'&gt;DPM-Solver ++ paper&lt;/a&gt; &lt;br&gt; &lt;a target='_blank' id='links' href='https://arxiv.org/pdf/2206.00364.pdf'&gt;Karras paper (quite technical)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPM++ 2M </t>
   </si>
   <si>
     <t xml:space="preserve">58</t>
   </si>
   <si>
-    <t xml:space="preserve">DPM means Diffusion Probabilistic Models. DPM++ means that it uses a new solver that speeds up guided sampling. Anyway these are super fast, so why use Euler, LMS, PLMS or DDIM when you can get the result in much fewer steps with DPM++ samplers. Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://arxiv.org/pdf/2211.01095.pdf'&gt;DPM-Solver ++ paper&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPM++</t>
+    <t xml:space="preserve">DPM++ SDE is a DPM++ sampler that is stochastic. You can also use the Karras version though they seem to produce very similar images. You can see below that different samplers will lead to different results (especially if they are ancestral samplers). &lt;br&gt; &lt;br&gt; &lt;img style='width: 100%; height: 100%' src='samplers.jpeg' alt='Samplers'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://arxiv.org/pdf/2206.00364.pdf'&gt;Karras paper (quite technical)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPM++ SDE</t>
   </si>
   <si>
     <t xml:space="preserve">59</t>
   </si>
   <si>
-    <t xml:space="preserve">All samplers can come in an Ancestral flavour meaning a little bit of noise is added at each steps. These samplers do not converge to an image like other samplers do, they simply keep on giving new images with increasing number of steps. Often they give a nice image with a very low step count.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancestral</t>
+    <t xml:space="preserve">Euler A is the classic Euler method but adding a bit of noise at each steps. This is an amazing samplers, that produces nice images at low step counts. It never converges, so it is a nice one to explore at different step count for variations. Like all ancestral samplers you can play around with the amount of noise added at each steps to change the aspects of your image. You can see below that different samplers will lead to different results (especially if they are ancestral samplers). &lt;br&gt; &lt;br&gt; &lt;img style='width: 100%; height: 100%' src='samplers.jpeg' alt='Samplers'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Euler A</t>
   </si>
   <si>
     <t xml:space="preserve">60</t>
   </si>
   <si>
-    <t xml:space="preserve">DPM++ 2M means that it is a multi step DPM++ solver. It perform better for large guidance scale. You can also use the Karras version though they seem to produce very similar images. You can see below that different samplers will lead to different results (especially if they are ancestral samplers). &lt;br&gt; &lt;br&gt; &lt;img style='width: 100%; height: 100%' src='samplers.jpeg' alt='Samplers'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://arxiv.org/pdf/2211.01095.pdf'&gt;DPM-Solver ++ paper&lt;/a&gt; &lt;br&gt; &lt;a target='_blank' id='links' href='https://arxiv.org/pdf/2206.00364.pdf'&gt;Karras paper (quite technical)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPM++ 2M </t>
+    <t xml:space="preserve">DPM++ 2S A means that it is a single step DPM++ solver. It performs better for small guidance scale. This yields really nice results. Like other ancestral samplers, it never converges. You can also use the Karras version. You can see below that different samplers will lead to different results (especially if they are ancestral samplers). &lt;br&gt; &lt;br&gt; &lt;img style='width: 100%; height: 100%' src='samplers.jpeg' alt='Samplers'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://arxiv.org/pdf/2211.01095.pdf'&gt;DPM-Solver ++ paper&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPM++ 2S A</t>
   </si>
   <si>
     <t xml:space="preserve">61</t>
   </si>
   <si>
-    <t xml:space="preserve">DPM++ SDE is a DPM++ sampler that is stochastic. You can also use the Karras version though they seem to produce very similar images. You can see below that different samplers will lead to different results (especially if they are ancestral samplers). &lt;br&gt; &lt;br&gt; &lt;img style='width: 100%; height: 100%' src='samplers.jpeg' alt='Samplers'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://arxiv.org/pdf/2206.00364.pdf'&gt;Karras paper (quite technical)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPM++ SDE</t>
+    <t xml:space="preserve">Sometimes you want to adjust the details of a face, like the eyes. You can do this with face restoration algorithms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Face restoration</t>
   </si>
   <si>
     <t xml:space="preserve">62</t>
   </si>
   <si>
-    <t xml:space="preserve">Euler A is the classic Euler method but adding a bit of noise at each steps. This is an amazing samplers, that produces nice images at low step counts. It never converges, so it is a nice one to explore at different step count for variations. Like all ancestral samplers you can play around with the amount of noise added at each steps to change the aspects of your image. You can see below that different samplers will lead to different results (especially if they are ancestral samplers). &lt;br&gt; &lt;br&gt; &lt;img style='width: 100%; height: 100%' src='samplers.jpeg' alt='Samplers'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euler A</t>
+    <t xml:space="preserve">GFPGAN is an algorithm that uses a styleGAN for face restoration. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/TencentARC/GFPGAN'&gt;GFPGAN&lt;/a&gt; &lt;br&gt; &lt;br&gt; Try it here: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/spaces/akhaliq/GFPGAN'&gt;GFPGAN Gradio Demo&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GFPGAN</t>
   </si>
   <si>
     <t xml:space="preserve">63</t>
   </si>
   <si>
-    <t xml:space="preserve">DPM++ 2S A means that it is a single step DPM++ solver. It performs better for small guidance scale. This yields really nice results. Like other ancestral samplers, it never converges. You can also use the Karras version. You can see below that different samplers will lead to different results (especially if they are ancestral samplers). &lt;br&gt; &lt;br&gt; &lt;img style='width: 100%; height: 100%' src='samplers.jpeg' alt='Samplers'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://arxiv.org/pdf/2211.01095.pdf'&gt;DPM-Solver ++ paper&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPM++ 2S A</t>
+    <t xml:space="preserve">Code Former is an algorithm for face restoration. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/sczhou/CodeFormer'&gt;Code Former&lt;/a&gt; &lt;br&gt; &lt;br&gt; Try it here: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/spaces/sczhou/CodeFormer'&gt;Code Former Gradio Demo&lt;/a&gt; &lt;br&gt; &lt;br&gt; An alternative to Code Former is RestoreFormer. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/wzhouxiff/RestoreFormer'&gt;RestoreFormer&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Former</t>
   </si>
   <si>
     <t xml:space="preserve">64</t>
   </si>
   <si>
-    <t xml:space="preserve">Sometimes you want to adjust the details of a face, like the eyes. You can do this with face restoration algorithms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Face restoration</t>
+    <t xml:space="preserve">The autoencoder from the original 1.5 model is not so good at representig faces. The MSE VAE or EMA VAE are better at representing human faces. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/stabilityai/sd-vae-ft-ema#visual'&gt;Original vs EMA vs MSE VAE&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAE </t>
   </si>
   <si>
     <t xml:space="preserve">65</t>
   </si>
   <si>
-    <t xml:space="preserve">GFPGAN is an algorithm that uses a styleGAN for face restoration. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/TencentARC/GFPGAN'&gt;GFPGAN&lt;/a&gt; &lt;br&gt; &lt;br&gt; Try it here: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/spaces/akhaliq/GFPGAN'&gt;GFPGAN Gradio Demo&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GFPGAN</t>
+    <t xml:space="preserve">Low Rank Adaptation (LoRA) is used to capture specific styles or subjects without fine tuning a model. The low rank part in LoRA refers to the technique of training lower-rank matrices, as opposed to fully fine-tuning large models like SDXL or SD1.5. This means the files are quite small and much easier to deal with than a fully fine tune model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LORA  </t>
   </si>
   <si>
     <t xml:space="preserve">66</t>
   </si>
   <si>
-    <t xml:space="preserve">Code Former is an algorithm for face restoration. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/sczhou/CodeFormer'&gt;Code Former&lt;/a&gt; &lt;br&gt; &lt;br&gt; Try it here: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/spaces/sczhou/CodeFormer'&gt;Code Former Gradio Demo&lt;/a&gt; &lt;br&gt; &lt;br&gt; An alternative to Code Former is RestoreFormer. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/wzhouxiff/RestoreFormer'&gt;RestoreFormer&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Former</t>
+    <t xml:space="preserve">Community models take the v1 or v2 checkpoint and finetuned them to a specific style or object. You can find community models on &lt;a target='_blank' id='links' href='https://huggingface.co/'&gt;Hugginface&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community</t>
   </si>
   <si>
     <t xml:space="preserve">67</t>
   </si>
   <si>
-    <t xml:space="preserve">The autoencoder from the original 1.5 model is not so good at representig faces. The MSE VAE or EMA VAE are better at representing human faces. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/stabilityai/sd-vae-ft-ema#visual'&gt;Original vs EMA vs MSE VAE&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAE </t>
+    <t xml:space="preserve">Stable Diffusion v1.1 (256x256, 194k steps), 1.2 (512x512, 515k steps) and 1.3 (512x512, 195k steps) were trained on subsets of LAION-2B. SD v1.4 (512x512) was trained on laion-aesthetics v2 5+ for 225k steps and had the wow factor. Stable diffusion v1.5 was also trained on laion-aesthetics v2 5+ but for 595k steps. Generally considered an improvement on 1.4 though many still use 1.4. They also release an inpainting model. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/CompVis/stable-diffusion-v-1-2-original'&gt;Stable diffusion 1.1, 1.2, 1.3&lt;/a&gt; &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/CompVis/stable-diffusion-v1-4'&gt;Stable diffusion 1.4&lt;/a&gt; &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/runwayml/stable-diffusion-v1-5'&gt;Stable diffusion 1.5&lt;/a&gt; &lt;br&gt; &lt;br&gt; Stable diffusion 2.0 and 2.1 were release closely from each other with 2.1 being considered an improvement. They were trained on LAION-5B (5B meaning roughly 5 billions while 2B was 2 billion images). But perhaps one of the biggest change from a user perspective was the change from CLIP (OpenAI) to OpenCLIP which is an open source version of CLIP. This is fantastic from an open source perspective as we don't know what was in the training of CLIP. But it does mean that many thing that were easy to do in v1 are harder to do or do not easily translate to v2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Official</t>
   </si>
   <si>
     <t xml:space="preserve">68</t>
   </si>
   <si>
-    <t xml:space="preserve">Low Rank Adaptation (LoRA) is used to capture specific styles or subjects without fine tuning a model. The low rank part in LoRA refers to the technique of training lower-rank matrices, as opposed to fully fine-tuning large models like SDXL or SD1.5. This means the files are quite small and much easier to deal with than a fully fine tune model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LORA  </t>
+    <t xml:space="preserve">SD1.5 is a 512x512 models that comes in two flavours, vanilla 1.5 and inpainting 1.5. SD1.5 is generally considered a solid and amazing all purpose model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5</t>
   </si>
   <si>
     <t xml:space="preserve">69</t>
   </si>
   <si>
-    <t xml:space="preserve">Community models take the v1 or v2 checkpoint and finetuned them to a specific style or object. You can find community models on &lt;a target='_blank' id='links' href='https://huggingface.co/'&gt;Hugginface&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community</t>
+    <t xml:space="preserve">SD2.1 comes in 512x512 or 768x768 version. Because it uses OpenCLIP instead of CLIP, many were frustrated at not being able to replicate their SD1.5 workflow on SD2.1, but things are evolving rapidly with new fine tuned models and new embeddings emerging daily extending the capabilities of SD2.1. Also with 2.1 came a 512 depth model. The 512 depth model only enables you to do img2img, but it preserves the composition much better than conventional img2img.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1</t>
   </si>
   <si>
     <t xml:space="preserve">70</t>
   </si>
   <si>
-    <t xml:space="preserve">Stable Diffusion v1.1 (256x256, 194k steps), 1.2 (512x512, 515k steps) and 1.3 (512x512, 195k steps) were trained on subsets of LAION-2B. SD v1.4 (512x512) was trained on laion-aesthetics v2 5+ for 225k steps and had the wow factor. Stable diffusion v1.5 was also trained on laion-aesthetics v2 5+ but for 595k steps. Generally considered an improvement on 1.4 though many still use 1.4. They also release an inpainting model. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/CompVis/stable-diffusion-v-1-2-original'&gt;Stable diffusion 1.1, 1.2, 1.3&lt;/a&gt; &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/CompVis/stable-diffusion-v1-4'&gt;Stable diffusion 1.4&lt;/a&gt; &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/runwayml/stable-diffusion-v1-5'&gt;Stable diffusion 1.5&lt;/a&gt; &lt;br&gt; &lt;br&gt; Stable diffusion 2.0 and 2.1 were release closely from each other with 2.1 being considered an improvement. They were trained on LAION-5B (5B meaning roughly 5 billions while 2B was 2 billion images). But perhaps one of the biggest change from a user perspective was the change from CLIP (OpenAI) to OpenCLIP which is an open source version of CLIP. This is fantastic from an open source perspective as we don't know what was in the training of CLIP. But it does mean that many thing that were easy to do in v1 are harder to do or do not easily translate to v2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Official</t>
+    <t xml:space="preserve">SDXL was trained on 1024x1024 images hence the XL. It has a great ouput but requires more VRAM for inference and in more importantly for finetuning and creating LORAs so there are a bit less community models than 1.5 but this is starting to change.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDXL</t>
   </si>
   <si>
     <t xml:space="preserve">71</t>
   </si>
   <si>
-    <t xml:space="preserve">SD1.5 is a 512x512 models that comes in two flavours, vanilla 1.5 and inpainting 1.5. SD1.5 is generally considered a solid and amazing all purpose model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5</t>
+    <t xml:space="preserve">Merging checkpoints allow you to mix two concepts together.</t>
   </si>
   <si>
     <t xml:space="preserve">72</t>
   </si>
   <si>
-    <t xml:space="preserve">SD2.1 comes in 512x512 or 768x768 version. Because it uses OpenCLIP instead of CLIP, many were frustrated at not being able to replicate their SD1.5 workflow on SD2.1, but things are evolving rapidly with new fine tuned models and new embeddings emerging daily extending the capabilities of SD2.1. Also with 2.1 came a 512 depth model. The 512 depth model only enables you to do img2img, but it preserves the composition much better than conventional img2img.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1</t>
+    <t xml:space="preserve">Using multiple hypernetwork or embeddings allows you mix style and objects together.</t>
   </si>
   <si>
     <t xml:space="preserve">73</t>
   </si>
   <si>
-    <t xml:space="preserve">SDXL was trained on 1024x1024 images hence the XL. It has a great ouput but requires more VRAM for inference and in more importantly for finetuning and creating LORAs so there are a bit less community models than 1.5 but this is starting to change.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDXL</t>
+    <t xml:space="preserve">Fine tuned community models take a v1 or v2 checkpoint and finetuned them to a specific style or object. You can find community models on &lt;a target='_blank' id='links' href='https://huggingface.co/'&gt;Hugginface&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine tuned</t>
   </si>
   <si>
     <t xml:space="preserve">74</t>
   </si>
   <si>
-    <t xml:space="preserve">Merging checkpoints allow you to mix two concepts together.</t>
+    <t xml:space="preserve">Merged community models take two or more models and merge them together. You can find community models on &lt;a target='_blank' id='links' href='https://huggingface.co/'&gt;Hugginface&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merged</t>
   </si>
   <si>
     <t xml:space="preserve">75</t>
   </si>
   <si>
-    <t xml:space="preserve">Using multiple hypernetwork or embeddings allows you mix style and objects together.</t>
+    <t xml:space="preserve">Megamerged models are a class of their own. They are a merge of more than 5 models with a particular style, object or capabilities in mind. You can find community models on &lt;a target='_blank' id='links' href='https://huggingface.co/'&gt;Hugginface&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megamerged</t>
   </si>
   <si>
     <t xml:space="preserve">76</t>
   </si>
   <si>
-    <t xml:space="preserve">Fine tuned community models take a v1 or v2 checkpoint and finetuned them to a specific style or object. You can find community models on &lt;a target='_blank' id='links' href='https://huggingface.co/'&gt;Hugginface&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine tuned</t>
+    <t xml:space="preserve">Brute Force is systematically exploring the parameter space. It can be done in one dimension (e.g. exploring the impact of cfg scale), two dimensions (cfg scale and steps) or n-dimensions (steps, samplers, denoising strength....).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brute Force</t>
   </si>
   <si>
     <t xml:space="preserve">77</t>
   </si>
   <si>
-    <t xml:space="preserve">Merged community models take two or more models and merge them together. You can find community models on &lt;a target='_blank' id='links' href='https://huggingface.co/'&gt;Hugginface&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merged</t>
+    <t xml:space="preserve">Using randomness in the prompts and the parameters allows you to explore different type and styles of images.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randomness</t>
   </si>
   <si>
     <t xml:space="preserve">78</t>
   </si>
   <si>
-    <t xml:space="preserve">Megamerged models are a class of their own. They are a merge of more than 5 models with a particular style, object or capabilities in mind. You can find community models on &lt;a target='_blank' id='links' href='https://huggingface.co/'&gt;Hugginface&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megamerged</t>
+    <t xml:space="preserve">One parameter exploration is generating a set of images by varying a single parameter (e.g. the delay in our prompt delay). &lt;br&gt; &lt;br&gt; &lt;img style='width: 100%; height: 100%' src='onedimension.png' alt='One dimension'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/AUTOMATIC1111/stable-diffusion-webui/wiki/Features'&gt;Webui wiki&lt;/a&gt; &lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One parameter</t>
   </si>
   <si>
     <t xml:space="preserve">79</t>
   </si>
   <si>
-    <t xml:space="preserve">Brute Force is systematically exploring the parameter space. It can be done in one dimension (e.g. exploring the impact of cfg scale), two dimensions (cfg scale and steps) or n-dimensions (steps, samplers, denoising strength....).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brute Force</t>
+    <t xml:space="preserve">XY Grid exploration is generating a grid of images by varying two parameters (e.g. steps and cfg scale). &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='xygrid.png' alt='XY grid'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/AUTOMATIC1111/stable-diffusion-webui/wiki/Features'&gt;Webui wiki&lt;/a&gt; &lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XY grid</t>
   </si>
   <si>
     <t xml:space="preserve">80</t>
   </si>
   <si>
-    <t xml:space="preserve">Using randomness in the prompts and the parameters allows you to explore different type and styles of images.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Randomness</t>
+    <t xml:space="preserve">Infinity grid is like XY grid but with as many paramaters as you want. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='infinitygrid.png' alt='Infinity grid'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/mcmonkeyprojects/sd-infinity-grid-generator-script'&gt;Infinity grid&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infinity Grid</t>
   </si>
   <si>
     <t xml:space="preserve">81</t>
   </si>
   <si>
-    <t xml:space="preserve">One parameter exploration is generating a set of images by varying a single parameter (e.g. the delay in our prompt delay). &lt;br&gt; &lt;br&gt; &lt;img style='width: 100%; height: 100%' src='onedimension.png' alt='One dimension'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/AUTOMATIC1111/stable-diffusion-webui/wiki/Features'&gt;Webui wiki&lt;/a&gt; &lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One parameter</t>
+    <t xml:space="preserve">Prompt Matrix is generating a grid of images by generating all the combinations of two prompts (e.g. chaotic evil matrix). &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='XYWords.png' alt='XY words'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/AUTOMATIC1111/stable-diffusion-webui/wiki/Features'&gt;Webui wiki&lt;/a&gt; &lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prompt Matrix</t>
   </si>
   <si>
     <t xml:space="preserve">82</t>
   </si>
   <si>
-    <t xml:space="preserve">XY Grid exploration is generating a grid of images by varying two parameters (e.g. steps and cfg scale). &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='xygrid.png' alt='XY grid'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/AUTOMATIC1111/stable-diffusion-webui/wiki/Features'&gt;Webui wiki&lt;/a&gt; &lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XY grid</t>
+    <t xml:space="preserve">The idea is to generate a large number of images using a combination of words randomly chosen. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/adieyal/sd-dynamic-prompts'&gt;Dynamic Prompt Extension&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random words</t>
   </si>
   <si>
     <t xml:space="preserve">83</t>
   </si>
   <si>
-    <t xml:space="preserve">Infinity grid is like XY grid but with as many paramaters as you want. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='infinitygrid.png' alt='Infinity grid'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/mcmonkeyprojects/sd-infinity-grid-generator-script'&gt;Infinity grid&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infinity Grid</t>
+    <t xml:space="preserve">You can also use multiple controlNets, T2I-Adapters or controlNets with T2i Adapters to obtain highly controled results. In the example below for example, I use the depth controlNet with the T2I-Adapter style. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='depthpreprocessor.png' alt='Depth preprocessor image'&gt; &lt;img style='width: 25%; height: 25%' src='styledepthpreprocessor.jpg' alt='Clip vision preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='styledepthoutput.png' alt='Clip vision controlNet output'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://www.reddit.com/r/StableDiffusion/comments/119o71b/a1111_controlnet_extension_explained_like_youre_5/?utm_name=androidcss'&gt;Control net explainer&lt;/a&gt; &lt;br&gt; &lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional control</t>
   </si>
   <si>
     <t xml:space="preserve">84</t>
   </si>
   <si>
-    <t xml:space="preserve">Prompt Matrix is generating a grid of images by generating all the combinations of two prompts (e.g. chaotic evil matrix). &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='XYWords.png' alt='XY words'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/AUTOMATIC1111/stable-diffusion-webui/wiki/Features'&gt;Webui wiki&lt;/a&gt; &lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prompt Matrix</t>
+    <t xml:space="preserve">Instead of getting the input of control net from a preprocessor, the idea is to do it manually, either by doing a sketch or manipulating an pose model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating</t>
   </si>
   <si>
     <t xml:space="preserve">85</t>
   </si>
   <si>
-    <t xml:space="preserve">The idea is to generate a large number of images using a combination of words randomly chosen. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/adieyal/sd-dynamic-prompts'&gt;Dynamic Prompt Extension&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random words</t>
+    <t xml:space="preserve">A preprocessor allows you to preprocess and image so that you can use some of its compositional features (most likely with a ControlNet type of model). They can be broadly divided into 3D preprocessors, 2D preprocessors and pose.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preprocessors</t>
   </si>
   <si>
     <t xml:space="preserve">86</t>
   </si>
   <si>
-    <t xml:space="preserve">You can also use multiple controlNets, T2I-Adapters or controlNets with T2i Adapters to obtain highly controled results. In the example below for example, I use the depth controlNet with the T2I-Adapter style. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='depthpreprocessor.png' alt='Depth preprocessor image'&gt; &lt;img style='width: 25%; height: 25%' src='styledepthpreprocessor.jpg' alt='Clip vision preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='styledepthoutput.png' alt='Clip vision controlNet output'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://www.reddit.com/r/StableDiffusion/comments/119o71b/a1111_controlnet_extension_explained_like_youre_5/?utm_name=androidcss'&gt;Control net explainer&lt;/a&gt; &lt;br&gt; &lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional control</t>
+    <t xml:space="preserve">There are a couple of type of 2D preprocessors currently M-LSD lines, Canny Edge, HED boundary and Semantic Segmentation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2D</t>
   </si>
   <si>
     <t xml:space="preserve">87</t>
   </si>
   <si>
-    <t xml:space="preserve">Instead of getting the input of control net from a preprocessor, the idea is to do it manually, either by doing a sketch or manipulating an pose model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating</t>
+    <t xml:space="preserve">There are two main 3D preprocessors the depth preprocessor and the normal map preprocessor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D</t>
   </si>
   <si>
     <t xml:space="preserve">88</t>
   </si>
   <si>
-    <t xml:space="preserve">A preprocessor allows you to preprocess and image so that you can use some of its compositional features (most likely with a ControlNet type of model). They can be broadly divided into 3D preprocessors, 2D preprocessors and pose.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preprocessors</t>
+    <t xml:space="preserve">The pose preprocessor can predict the location and orientation of different keypoints, such as joints, facial features, hands and feet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pose </t>
   </si>
   <si>
     <t xml:space="preserve">89</t>
   </si>
   <si>
-    <t xml:space="preserve">There are a couple of type of 2D preprocessors currently M-LSD lines, Canny Edge, HED boundary and Semantic Segmentation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2D</t>
+    <t xml:space="preserve">Canny edge detection is good at finding a wide range of edges in the image while also eliminating noise and preserving edge continuity. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='cannypreprocessor.png' alt='Canny preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='cannyoutput.png' alt='Canny controlNet output'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canny Edge </t>
   </si>
   <si>
     <t xml:space="preserve">90</t>
   </si>
   <si>
-    <t xml:space="preserve">There are two main 3D preprocessors the depth preprocessor and the normal map preprocessor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3D</t>
+    <t xml:space="preserve">M-LSD maps out the wireframes of objects, it is great at detecting straight lines. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='mlsdpreprocessor.png' alt='MLSD preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='mlsdoutput.png' alt='MLSD controlNet output'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-LSD lines </t>
   </si>
   <si>
     <t xml:space="preserve">91</t>
   </si>
   <si>
-    <t xml:space="preserve">The pose preprocessor can predict the location and orientation of different keypoints, such as joints, facial features, hands and feet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pose </t>
+    <t xml:space="preserve">The Holistically Nested Edge Detection (HED) preprocessor is good at preserving object boundaries. It can be more robust than canny and you don't have to set these tresholds. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='hedpreprocessor.png' alt='HED preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='hedoutput.png' alt='HED controlNet output'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HED boundary </t>
   </si>
   <si>
     <t xml:space="preserve">92</t>
   </si>
   <si>
-    <t xml:space="preserve">Canny edge detection is good at finding a wide range of edges in the image while also eliminating noise and preserving edge continuity. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='cannypreprocessor.png' alt='Canny preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='cannyoutput.png' alt='Canny controlNet output'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canny Edge </t>
+    <t xml:space="preserve">Semantic segmentation assigns a label or category to every pixel in the image. The preprocessor recognizes and groups pixels that belong to the same object class. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='semanticpreprocessor.png' alt='Semantic preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='semanticoutput.png' alt='Semantic controlNet output'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semantic seg</t>
   </si>
   <si>
     <t xml:space="preserve">93</t>
   </si>
   <si>
-    <t xml:space="preserve">M-LSD maps out the wireframes of objects, it is great at detecting straight lines. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='mlsdpreprocessor.png' alt='MLSD preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='mlsdoutput.png' alt='MLSD controlNet output'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M-LSD lines </t>
+    <t xml:space="preserve">A depth map contains information relating to the distance of the surfaces of scene objects from a viewpoint.  &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='depthpreprocessor.png' alt='Depth preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='depthoutput.png' alt='Depth controlNet output'&gt; &lt;br&gt; &lt;br&gt; With a depth map you can start doing some interesting post processing, like videos. &lt;br&gt; &lt;br&gt; Script: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/thygate/stable-diffusion-webui-depthmap-script'&gt;Depth Map Script for Auto1111&lt;/a&gt; &lt;br&gt; &lt;br&gt; &lt;video width='320' height='240' loop autoplay&gt; &lt;source src='depthmap.mp4' type='video/mp4'&gt; &gt; Your browser does not support the video tag. &lt;/video&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depth </t>
   </si>
   <si>
     <t xml:space="preserve">94</t>
   </si>
   <si>
-    <t xml:space="preserve">The Holistically Nested Edge Detection (HED) preprocessor is good at preserving object boundaries. It can be more robust than canny and you don't have to set these tresholds. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='hedpreprocessor.png' alt='HED preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='hedoutput.png' alt='HED controlNet output'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HED boundary </t>
+    <t xml:space="preserve">In a normal map, the RGB colour tell how the surface normals are oriented for each polygon. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='normalpreprocessor.png' alt='Normal preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='normaloutput.png' alt='Normal controlNet output'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal Map </t>
   </si>
   <si>
     <t xml:space="preserve">95</t>
   </si>
   <si>
-    <t xml:space="preserve">Semantic segmentation assigns a label or category to every pixel in the image. The preprocessor recognizes and groups pixels that belong to the same object class. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='semanticpreprocessor.png' alt='Semantic preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='semanticoutput.png' alt='Semantic controlNet output'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semantic seg</t>
+    <t xml:space="preserve">This preprocessor capture humans pose by creating a stick figure. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='originalopenpose.jpg' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='openposepreprocessor.png' alt='Open Pose preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='outputopenpose.jpg' alt='Color T2I output'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pose</t>
   </si>
   <si>
     <t xml:space="preserve">96</t>
   </si>
   <si>
-    <t xml:space="preserve">A depth map contains information relating to the distance of the surfaces of scene objects from a viewpoint.  &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='depthpreprocessor.png' alt='Depth preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='depthoutput.png' alt='Depth controlNet output'&gt; &lt;br&gt; &lt;br&gt; With a depth map you can start doing some interesting post processing, like videos. &lt;br&gt; &lt;br&gt; Script: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/thygate/stable-diffusion-webui-depthmap-script'&gt;Depth Map Script for Auto1111&lt;/a&gt; &lt;br&gt; &lt;br&gt; &lt;video width='320' height='240' loop autoplay&gt; &lt;source src='depthmap.mp4' type='video/mp4'&gt; &gt; Your browser does not support the video tag. &lt;/video&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depth </t>
+    <t xml:space="preserve">Here the idea is that the best way to get what you want is to sketch with pen and paper or on a tablet and use ControlNet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2D </t>
   </si>
   <si>
     <t xml:space="preserve">97</t>
   </si>
   <si>
-    <t xml:space="preserve">In a normal map, the RGB colour tell how the surface normals are oriented for each polygon. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='normalpreprocessor.png' alt='Normal preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='normaloutput.png' alt='Normal controlNet output'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal Map </t>
+    <t xml:space="preserve">The idea is to generate the exact pose you want to use in ControlNet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pose  </t>
   </si>
   <si>
     <t xml:space="preserve">98</t>
   </si>
   <si>
-    <t xml:space="preserve">This preprocessor capture humans pose by creating a stick figure. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='originalopenpose.jpg' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='openposepreprocessor.png' alt='Open Pose preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='outputopenpose.jpg' alt='Color T2I output'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pose</t>
+    <t xml:space="preserve">Sketch </t>
   </si>
   <si>
     <t xml:space="preserve">99</t>
   </si>
   <si>
-    <t xml:space="preserve">Here the idea is that the best way to get what you want is to sketch with pen and paper or on a tablet and use ControlNet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2D </t>
+    <t xml:space="preserve">The pose editor allows you to edit the joints and facial features to later use in the pose model of ControlNet. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='openpose.png' alt='Open Pose'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pose editor</t>
   </si>
   <si>
     <t xml:space="preserve">100</t>
   </si>
   <si>
-    <t xml:space="preserve">The idea is to generate the exact pose you want to use in ControlNet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pose  </t>
+    <t xml:space="preserve">Dynamic tresholding allows to use high cfg scales without having weird color saturation effects. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/mcmonkeyprojects/sd-dynamic-thresholding'&gt;Dynamic Tresholding Repo&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic tresholding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturation</t>
   </si>
   <si>
     <t xml:space="preserve">101</t>
   </si>
   <si>
-    <t xml:space="preserve">Sketch </t>
+    <t xml:space="preserve">You can use a controlNet to control the composition of your creation by feeding it an additional image or the output from one of the preprocessors. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='cannypreprocessor.png' alt='Canny preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='cannyoutput.png' alt='Canny controlNet output'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContorlNet   </t>
   </si>
   <si>
     <t xml:space="preserve">102</t>
   </si>
   <si>
-    <t xml:space="preserve">The pose editor allows you to edit the joints and facial features to later use in the pose model of ControlNet. &lt;br&gt; &lt;br&gt; &lt;img style='width: 95%; height: 95%' src='openpose.png' alt='Open Pose'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pose editor</t>
+    <t xml:space="preserve">Parameters you can change to obtain better output. &lt;br&gt; &lt;br&gt; Notable mention: Self-attention guidance blurs selectively regions that diffusion models work on. That allows to better guide the diffusion process. &lt;br&gt; &lt;br&gt; &lt;img style='width: 45%; height: 45%' src='withoutSAG.png' alt='Without SAG'&gt; &lt;img style='width: 45%; height: 45%' src='withSAG.png' alt='With SAG'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://ku-cvlab.github.io/Self-Attention-Guidance/'&gt;Self-attention Guidance on github&lt;/a&gt; &lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tweaks</t>
   </si>
   <si>
     <t xml:space="preserve">103</t>
   </si>
   <si>
-    <t xml:space="preserve">Dynamic tresholding allows to use high cfg scales without having weird color saturation effects. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/mcmonkeyprojects/sd-dynamic-thresholding'&gt;Dynamic Tresholding Repo&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic tresholding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturation</t>
+    <t xml:space="preserve">Stable diffusion tend to generate images with an average value close to 0.5 (if black is 0 and white is 1). Offset noise allows to overcome this and generate very bright or dark images. Notice how the second image is much more dark. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='offsetnoise.jpeg' alt='Original image'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://www.crosslabs.org/blog/diffusion-with-offset-noise'&gt;Diffusion with offset noise&lt;/a&gt; &lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brightness</t>
   </si>
   <si>
     <t xml:space="preserve">104</t>
   </si>
   <si>
-    <t xml:space="preserve">You can use a controlNet to control the composition of your creation by feeding it an additional image or the output from one of the preprocessors. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='cannypreprocessor.png' alt='Canny preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='cannyoutput.png' alt='Canny controlNet output'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContorlNet   </t>
-  </si>
-  <si>
     <t xml:space="preserve">105</t>
   </si>
   <si>
-    <t xml:space="preserve">Parameters you can change to obtain better output. &lt;br&gt; &lt;br&gt; Notable mention: Self-attention guidance blurs selectively regions that diffusion models work on. That allows to better guide the diffusion process. &lt;br&gt; &lt;br&gt; &lt;img style='width: 45%; height: 45%' src='withoutSAG.png' alt='Without SAG'&gt; &lt;img style='width: 45%; height: 45%' src='withSAG.png' alt='With SAG'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://ku-cvlab.github.io/Self-Attention-Guidance/'&gt;Self-attention Guidance on github&lt;/a&gt; &lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tweaks</t>
+    <t xml:space="preserve">Stable diffusion tend to generate images with an average value close to 0.5 (if black is 0 and white is 1). Offset noise allows to overcome this and generate very bright or dark images. You can use also use an offset noise LORA if you don't want to implement offset noise. Notice how the second image is much more dark. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='offsetnoise.jpeg' alt='Original image'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://www.crosslabs.org/blog/diffusion-with-offset-noise'&gt;Diffusion with offset noise&lt;/a&gt; &lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offset noise</t>
   </si>
   <si>
     <t xml:space="preserve">106</t>
   </si>
   <si>
-    <t xml:space="preserve">Stable diffusion tend to generate images with an average value close to 0.5 (if black is 0 and white is 1). Offset noise allows to overcome this and generate very bright or dark images. Notice how the second image is much more dark. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='offsetnoise.jpeg' alt='Original image'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://www.crosslabs.org/blog/diffusion-with-offset-noise'&gt;Diffusion with offset noise&lt;/a&gt; &lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brightness</t>
+    <t xml:space="preserve">Specific tools to obtain more consistent images.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility</t>
   </si>
   <si>
     <t xml:space="preserve">107</t>
   </si>
   <si>
+    <t xml:space="preserve">This allows you to make an image using to look like an image from another seed. You can increase the factor to smoothly make it look like an image in a nother seed. &lt;br&gt; &lt;br&gt; &lt;img style='width: 100%; height: 100%' src='seedvariation.png' alt='Seed variation'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/AUTOMATIC1111/stable-diffusion-webui/wiki/Features'&gt;Webui wiki&lt;/a&gt; &lt;br&gt; &lt;br&gt; Another tool is seed resize. Usually after you change the image dimension, the image completely change. Seed resize in principle allows you to change the image dimension without changing the image too much. It does not always work though. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/AUTOMATIC1111/stable-diffusion-webui/wiki/Features'&gt;Webui wiki&lt;/a&gt; &lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variations</t>
+  </si>
+  <si>
     <t xml:space="preserve">108</t>
   </si>
   <si>
-    <t xml:space="preserve">Stable diffusion tend to generate images with an average value close to 0.5 (if black is 0 and white is 1). Offset noise allows to overcome this and generate very bright or dark images. You can use also use an offset noise LORA if you don't want to implement offset noise. Notice how the second image is much more dark. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='offsetnoise.jpeg' alt='Original image'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://www.crosslabs.org/blog/diffusion-with-offset-noise'&gt;Diffusion with offset noise&lt;/a&gt; &lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offset noise</t>
+    <t xml:space="preserve">You need tools to do the data engineering required before doing your finetuning. You can find some below. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/victorchall/EveryDream'&gt;Tools for data preparation&lt;/a&gt; &lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Preparation</t>
   </si>
   <si>
     <t xml:space="preserve">109</t>
   </si>
   <si>
-    <t xml:space="preserve">Specific tools to obtain more consistent images.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility</t>
+    <t xml:space="preserve">Tools </t>
   </si>
   <si>
     <t xml:space="preserve">110</t>
   </si>
   <si>
-    <t xml:space="preserve">This allows you to make an image using to look like an image from another seed. You can increase the factor to smoothly make it look like an image in a nother seed. &lt;br&gt; &lt;br&gt; &lt;img style='width: 100%; height: 100%' src='seedvariation.png' alt='Seed variation'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/AUTOMATIC1111/stable-diffusion-webui/wiki/Features'&gt;Webui wiki&lt;/a&gt; &lt;br&gt; &lt;br&gt; Another tool is seed resize. Usually after you change the image dimension, the image completely change. Seed resize in principle allows you to change the image dimension without changing the image too much. It does not always work though. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/AUTOMATIC1111/stable-diffusion-webui/wiki/Features'&gt;Webui wiki&lt;/a&gt; &lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variations</t>
+    <t xml:space="preserve">Embeddings </t>
   </si>
   <si>
     <t xml:space="preserve">111</t>
   </si>
   <si>
-    <t xml:space="preserve">You need tools to do the data engineering required before doing your finetuning. You can find some below. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/victorchall/EveryDream'&gt;Tools for data preparation&lt;/a&gt; &lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Preparation</t>
+    <t xml:space="preserve">Embeddings  </t>
   </si>
   <si>
     <t xml:space="preserve">112</t>
   </si>
   <si>
-    <t xml:space="preserve">Tools </t>
+    <t xml:space="preserve">This is your starting point. What UI will you use to make your images. You have commercial options and free options.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface</t>
   </si>
   <si>
     <t xml:space="preserve">113</t>
   </si>
   <si>
-    <t xml:space="preserve">Embeddings </t>
+    <t xml:space="preserve">Are you just starting, then look at using &lt;a target='_blank' id='links' href='https://github.com/lllyasviel/Fooocus'&gt;Fooocus &lt;/a&gt;. If you want more control yet don't want to bother tweeking your interface use &lt;a target='_blank' id='links' href='https://github.com/vladmandic/automatic'&gt;SD.Next &lt;/a&gt;. If you want to customise your interace with lots of extra addons and want to be on the bleeding edge and don't mind a few things breaking you can use &lt;a target='_blank' id='links' href='https://github.com/AUTOMATIC1111/stable-diffusion-webui'&gt;Auto1111 &lt;/a&gt;. If you love inpainting, outpainting and just a great UI and canvas you can use &lt;a target='_blank' id='links' href='https://github.com/invoke-ai/InvokeAI/'&gt;InvokeAI&lt;/a&gt;. Finally, if you want advance pipelines and workflows and love node based interfaces you can use &lt;a target='_blank' id='links' href='https://github.com/comfyanonymous/ComfyUI'&gt;ComfyUI&lt;/a&gt;. There are plenty of others that I am missing. My go to page for Colab is &lt;a target='_blank' id='links' href='https://pharmapsychotic.com/tools.html'&gt;Pharmapsychotic tools&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inference</t>
   </si>
   <si>
     <t xml:space="preserve">114</t>
   </si>
   <si>
-    <t xml:space="preserve">Embeddings  </t>
+    <t xml:space="preserve">Auto1111 (A1111): A flexible web interface for Stable Diffusion with features like inpainting, outpainting, and extensions. &lt;a target='_blank' id='links' href='https://github.com/AUTOMATIC1111/stable-diffusion-webui'&gt;Learn more&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1111</t>
   </si>
   <si>
     <t xml:space="preserve">115</t>
   </si>
   <si>
-    <t xml:space="preserve">This is your starting point. What UI will you use to make your images. You have commercial options and free options.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interface</t>
+    <t xml:space="preserve">ComfyUI: A node-based interface for building custom Stable Diffusion workflows and controlling outputs. &lt;a target='_blank' id='links' href='https://github.com/comfyanonymous/ComfyUI'&gt;Learn more&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfy</t>
   </si>
   <si>
     <t xml:space="preserve">116</t>
   </si>
   <si>
-    <t xml:space="preserve">There are many options. The most mainstream ones are &lt;a target='_blank' id='links' href='https://beta.dreamstudio.ai/'&gt;DreamStudio&lt;/a&gt; and &lt;a target='_blank' id='links' href='https://runwayml.com/'&gt;Runwayml&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commercial</t>
+    <t xml:space="preserve">Fooocus: A simple and user-friendly interface for beginners to quickly create images. &lt;a target='_blank' id='links' href='https://github.com/lllyasviel/Fooocus'&gt;Learn more&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fooocus</t>
   </si>
   <si>
     <t xml:space="preserve">117</t>
   </si>
   <si>
-    <t xml:space="preserve">Are you just starting, then look at using &lt;a target='_blank' id='links' href='https://github.com/lllyasviel/Fooocus'&gt;Fooocus &lt;/a&gt;. If you want more control yet don't want to bother tweeking your interface use &lt;a target='_blank' id='links' href='https://github.com/vladmandic/automatic'&gt;SD.Next &lt;/a&gt;. If you want to customise your interace with lots of extra addons and want to be on the bleeding edge and don't mind a few things breaking you can use &lt;a target='_blank' id='links' href='https://github.com/AUTOMATIC1111/stable-diffusion-webui'&gt;Auto1111 &lt;/a&gt;. If you love inpainting, outpainting and just a great UI and canvas you can use &lt;a target='_blank' id='links' href='https://github.com/invoke-ai/InvokeAI/'&gt;InvokeAI&lt;/a&gt;. Finally, if you want advance pipelines and workflows and love node based interfaces you can use &lt;a target='_blank' id='links' href='https://github.com/comfyanonymous/ComfyUI'&gt;ComfyUI&lt;/a&gt;. Others include &lt;a target='_blank' id='links' href='https://nmkd.itch.io/t2i-gui'&gt;NKMD GUI&lt;/a&gt;... if you have a good graphic card and can run it locally. There are plenty of others that I am missing. My go to page for Colab is &lt;a target='_blank' id='links' href='https://pharmapsychotic.com/tools.html'&gt;Pharmapsychotic tools&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free</t>
+    <t xml:space="preserve">InvokeAI: A versatile interface with tools for inpainting, outpainting, and detailed editing. &lt;a target='_blank' id='links' href='https://github.com/invoke-ai/InvokeAI'&gt;Learn more&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InvokeAI</t>
   </si>
   <si>
     <t xml:space="preserve">118</t>
   </si>
   <si>
-    <t xml:space="preserve">Are you just starting, then look at using &lt;a target='_blank' id='links' href='https://github.com/lllyasviel/Fooocus'&gt;Fooocus &lt;/a&gt;. If you want more control yet don't want to bother tweeking your interface use &lt;a target='_blank' id='links' href='https://github.com/vladmandic/automatic'&gt;SD.Next &lt;/a&gt;. If you want to customise your interace with lots of extra addons and want to be on the bleeding edge and don't mind a few things breaking you can use &lt;a target='_blank' id='links' href='https://github.com/AUTOMATIC1111/stable-diffusion-webui'&gt;Auto1111 &lt;/a&gt;. If you love inpainting, outpainting and just a great UI and canvas you can use &lt;a target='_blank' id='links' href='https://github.com/invoke-ai/InvokeAI/'&gt;InvokeAI&lt;/a&gt;. Finally, if you want advance pipelines and workflows and love node based interfaces you can use &lt;a target='_blank' id='links' href='https://github.com/comfyanonymous/ComfyUI'&gt;ComfyUI&lt;/a&gt;. There are plenty of others that I am missing. My go to page for Colab is &lt;a target='_blank' id='links' href='https://pharmapsychotic.com/tools.html'&gt;Pharmapsychotic tools&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free </t>
+    <t xml:space="preserve">Forge: A platform for managing Stable Diffusion workflows, designed for efficiency and collaboration. &lt;a target='_blank' id='links' href='https://github.com/lllyasviel/stable-diffusion-webui-forge'&gt;Learn more&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forge</t>
   </si>
   <si>
     <t xml:space="preserve">119</t>
   </si>
   <si>
-    <t xml:space="preserve">Commercial </t>
+    <t xml:space="preserve">These interfaces are focused on training LORA or fine-tuning models.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training </t>
   </si>
   <si>
     <t xml:space="preserve">120</t>
   </si>
   <si>
+    <t xml:space="preserve">Kohya: A tool for training and fine-tuning models, including LORA and Dreambooth. &lt;a target='_blank' id='links' href='https://github.com/kohya-ss/sd-scripts'&gt;Learn more&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kohya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These interfaces are focus on editing tasks for example editing either the light and colors or editing faces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LivePortrait: A tool for animating portraits, adding realistic motion and expressions to faces. &lt;a target='_blank' id='links' href='https://github.com/KwaiVGI/LivePortrait'&gt;Learn more&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LivePortrait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC-Light: A tool for adjusting lighting and colors in generated images. &lt;a target='_blank' id='links' href='https://github.com/lllyasviel/IC-Light'&gt;Learn more&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC-Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FaceFusion: A tool for blending or morphing faces with precision. &lt;a target='_blank' id='links' href='https://github.com/FaceFusion/FaceFusion'&gt;Learn more&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FaceFusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swarm: SwarmUI is a fast, modular web UI for Stable Diffusion that makes advanced features easily accessible while maintaining high performance and extensibility. &lt;a target='_blank' id='links' href='https://github.com/mcmonkeyprojects/SwarmUI'&gt;Learn more&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129</t>
+  </si>
+  <si>
     <t xml:space="preserve">This is about combining two or more images to create a single image.</t>
   </si>
   <si>
@@ -1081,7 +1165,7 @@
     <t xml:space="preserve">Image prompting</t>
   </si>
   <si>
-    <t xml:space="preserve">121</t>
+    <t xml:space="preserve">130</t>
   </si>
   <si>
     <t xml:space="preserve">Image mixer can combine two or more images to create a new image. Here I can combine the image of the interior with an image of Brutalist architecture to obtain the third image. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='brutalist.png' alt='Brutalist architecture'&gt; &lt;img style='width: 25%; height: 25%' src='image mixer.png' alt='Image mixer'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/spaces/lambdalabs/image-mixer-demo'&gt;Try Image mixer on hugginface&lt;/a&gt; &lt;br&gt;</t>
@@ -1090,7 +1174,7 @@
     <t xml:space="preserve">Image mixer</t>
   </si>
   <si>
-    <t xml:space="preserve">122</t>
+    <t xml:space="preserve">131</t>
   </si>
   <si>
     <t xml:space="preserve">T2I Adapter is another way to control composition like ControlNet. In addition, you can even control style and color. It is also faster than controlNet as it is not iterative. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='styledepthpreprocessor.jpg' alt='Clip vision preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='styledepthoutput.png' alt='Clip vision controlNet output'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/TencentARC/T2I-Adapter'&gt;T2I adapter repo&lt;/a&gt; &lt;br&gt;</t>
@@ -1099,7 +1183,7 @@
     <t xml:space="preserve">T2I Adapter</t>
   </si>
   <si>
-    <t xml:space="preserve">123</t>
+    <t xml:space="preserve">132</t>
   </si>
   <si>
     <t xml:space="preserve">Sometimes you want to better understand how your prompt affect the composition. Especially with style type of prompts or adjectives.</t>
@@ -1108,7 +1192,7 @@
     <t xml:space="preserve">Understanding</t>
   </si>
   <si>
-    <t xml:space="preserve">124</t>
+    <t xml:space="preserve">133</t>
   </si>
   <si>
     <t xml:space="preserve">Attention map allows you to visualise what each of the prompt keywords does to the image with a heatmap. &lt;br&gt; &lt;br&gt; &lt;img style='width: 45%; height: 45%' src='attentionmaporiginal.png' alt='Original image'&gt; &lt;img style='width: 45%; height: 45%' src='attentionmap1.png' alt='Original image'&gt; &lt;img style='width: 45%; height: 45%' src='attentionmap2.png' alt='Original image'&gt; &lt;img style='width: 45%; height: 45%' src='attentionmap3.png' alt='Original image'&gt; &lt;img style='width: 45%; height: 45%' src='attentionmap4.png' alt='Original image'&gt; &lt;img style='width: 45%; height: 45%' src='attentionmap5.png' alt='Original image'&gt; &lt;img style='width: 45%; height: 45%' src='attentionmap6.png' alt='Original image'&gt; &lt;img style='width: 45%; height: 45%' src='attentionmap7.png' alt='Original image'&gt; &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://arxiv.org/abs/2210.04885'&gt;Attention attribution map paper&lt;/a&gt; &lt;br&gt; &lt;br&gt; Try it on hugginface: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/spaces/tetrisd/Diffusion-Attentive-Attribution-Maps'&gt;Attention attribution map&lt;/a&gt;</t>
@@ -1117,7 +1201,7 @@
     <t xml:space="preserve">Attention map</t>
   </si>
   <si>
-    <t xml:space="preserve">125</t>
+    <t xml:space="preserve">134</t>
   </si>
   <si>
     <t xml:space="preserve">The Unet takes an image as in input and give another image as output. The basic parts of a Unet are convolution layers, pooling layers and activation layers. Put together these form a block. We use a series of these blocks for the Unet. When doing an unweighted merge we merge all of the blocks at the same ratio. Another option is to merge the Unet but assigning different weights to the block. For instance model A for the external blocks (begenning and end) and model B for the middle blocks. Another way would be to have a V profile as below. Playing with these can lead to interesting effects and much more control on the merge. &lt;img style='width: 95%; height: 95%' src='blockweighted.png' alt='Block weighted'&gt; &lt;br&gt; &lt;br&gt; Further ressource: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/bbc-mc/sdweb-merge-block-weighted-gui'&gt;Merge block weighted&lt;/a&gt;</t>
@@ -1126,7 +1210,7 @@
     <t xml:space="preserve">Block weighted</t>
   </si>
   <si>
-    <t xml:space="preserve">126</t>
+    <t xml:space="preserve">135</t>
   </si>
   <si>
     <t xml:space="preserve">You can merge LORA to combine two style, two subjects or both. &lt;br&gt; &lt;br&gt; Further ressource: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/derrian-distro/LoRA_Easy_Training_Scripts'&gt;LORA merging&lt;/a&gt;</t>
@@ -1135,7 +1219,7 @@
     <t xml:space="preserve">LORA </t>
   </si>
   <si>
-    <t xml:space="preserve">127</t>
+    <t xml:space="preserve">136</t>
   </si>
   <si>
     <t xml:space="preserve">The idea is to remove some concepts such as objects from an image. &lt;br&gt; &lt;br&gt; Further ressource: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/Sanster/IOPaint'&gt;Lama cleaner&lt;/a&gt;</t>
@@ -1147,7 +1231,7 @@
     <t xml:space="preserve">Segmentation</t>
   </si>
   <si>
-    <t xml:space="preserve">128</t>
+    <t xml:space="preserve">137</t>
   </si>
   <si>
     <t xml:space="preserve">The idea is to remove some concepts such as objects from an image. Lama-cleaner is designed to remove undesired objects from images, enhance visual appeal. It does this automatically via object recognition and allows users to select which part of the photo to edit &lt;br&gt; &lt;br&gt; Further ressource: &lt;br&gt; &lt;a target='_blank' id='links' href='https://github.com/Sanster/IOPaint'&gt;Lama cleaner&lt;/a&gt; &lt;br&gt; &lt;br&gt; Here below I remove the table. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='table removed.png' alt='Table removed image'&gt;</t>
@@ -1156,7 +1240,7 @@
     <t xml:space="preserve">Cleaner</t>
   </si>
   <si>
-    <t xml:space="preserve">129</t>
+    <t xml:space="preserve">138</t>
   </si>
   <si>
     <t xml:space="preserve">CLIP vision  &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='styledepthpreprocessor.jpg' alt='Clip vision preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='styledepthoutput.png' alt='Clip vision controlNet output'&gt;</t>
@@ -1168,7 +1252,7 @@
     <t xml:space="preserve">Clip vision</t>
   </si>
   <si>
-    <t xml:space="preserve">130</t>
+    <t xml:space="preserve">139</t>
   </si>
   <si>
     <t xml:space="preserve">Binary  &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='binarypreprocessor.png' alt='Binary preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='binaryoutput.png' alt='Binary controlNet output'&gt;</t>
@@ -1177,7 +1261,7 @@
     <t xml:space="preserve">Binary</t>
   </si>
   <si>
-    <t xml:space="preserve">131</t>
+    <t xml:space="preserve">140</t>
   </si>
   <si>
     <t xml:space="preserve">Color  &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='styledepthpreprocessor.jpg' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='colorpreprocessor.png' alt='Color preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='colordepthoutput.png' alt='Color T2I output'&gt;</t>
@@ -1189,7 +1273,7 @@
     <t xml:space="preserve">Color</t>
   </si>
   <si>
-    <t xml:space="preserve">132</t>
+    <t xml:space="preserve">141</t>
   </si>
   <si>
     <t xml:space="preserve">Pidinet  &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='pidinetpreprocessor.png' alt='Pidinet preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='pidinetoutput.png' alt='Pidinet controlNet output'&gt;</t>
@@ -1198,7 +1282,7 @@
     <t xml:space="preserve">Pidinet</t>
   </si>
   <si>
-    <t xml:space="preserve">133</t>
+    <t xml:space="preserve">142</t>
   </si>
   <si>
     <t xml:space="preserve">Fake scrible  &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='fakescriblepreprocessor.png' alt='Fake scrible preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='fakescribleoutput.png' alt='Fake scrible controlNet output'&gt;</t>
@@ -1207,7 +1291,7 @@
     <t xml:space="preserve">Fake scrible</t>
   </si>
   <si>
-    <t xml:space="preserve">134</t>
+    <t xml:space="preserve">143</t>
   </si>
   <si>
     <t xml:space="preserve">You can train a controlNet. If you have features that are spatially consistent accross images and want to generate some images with these features, you can train a controlNet. This is very promising for extensive controls over your specific generative application. &lt;br&gt; &lt;br&gt; Further ressources: &lt;br&gt; &lt;a target='_blank' id='links' href='https://huggingface.co/blog/train-your-controlnet'&gt;Train your own controlNet&lt;/a&gt; &lt;br&gt; &lt;br&gt; There has been a couple of people training contolNet on face landmarks for example &lt;a target='_blank' id='links' href='https://github.com/Georgefwt/Face-Landmark-ControlNet'&gt;face landmark controlNet&lt;/a&gt;. &lt;br&gt;</t>
@@ -1216,7 +1300,7 @@
     <t xml:space="preserve">ControlNet  </t>
   </si>
   <si>
-    <t xml:space="preserve">135</t>
+    <t xml:space="preserve">144</t>
   </si>
   <si>
     <t xml:space="preserve">ControlNet   </t>
@@ -1225,31 +1309,31 @@
     <t xml:space="preserve">ControlNet</t>
   </si>
   <si>
-    <t xml:space="preserve">136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138</t>
+    <t xml:space="preserve">145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147</t>
   </si>
   <si>
     <t xml:space="preserve">Color               </t>
   </si>
   <si>
-    <t xml:space="preserve">139</t>
+    <t xml:space="preserve">148</t>
   </si>
   <si>
     <t xml:space="preserve">Image prompting is about capturing specific style of subjects. It is much easier to get consistent characgters or style by using image prompting than text prompting. In particular IP-Adapate allows to get really consistent subjects via image prompting.</t>
   </si>
   <si>
-    <t xml:space="preserve">140</t>
+    <t xml:space="preserve">149</t>
   </si>
   <si>
     <t xml:space="preserve">Clip vision               </t>
   </si>
   <si>
-    <t xml:space="preserve">141</t>
+    <t xml:space="preserve">150</t>
   </si>
   <si>
     <t xml:space="preserve">ControlNet Reference allows to generate an image that is similar to the reference image. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='reference.jpg' alt='Reference controlNet output'&gt;</t>
@@ -1258,7 +1342,7 @@
     <t xml:space="preserve">Reference</t>
   </si>
   <si>
-    <t xml:space="preserve">142</t>
+    <t xml:space="preserve">151</t>
   </si>
   <si>
     <t xml:space="preserve">ControlNet Shuffle allows to generate an image that is similar to the reference image, but it shuffles the composition around. It allows more variations than the ControlNet Reference. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='shufflepreprocessor.png' alt='Shuffle preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='shuffle.jpg' alt='Shuffle controlNet output'&gt;</t>
@@ -1267,7 +1351,7 @@
     <t xml:space="preserve">Shuffle</t>
   </si>
   <si>
-    <t xml:space="preserve">143</t>
+    <t xml:space="preserve">152</t>
   </si>
   <si>
     <t xml:space="preserve">You know how if you do text prompts it is really hard to get consistent styles or consistent subjects? IP-Adapter allows to generate consistent images. That is consistent subjects and in particular consistent faces. These models allow users to input image prompts, which are then interpreted by the system and used as conditioning for the image generation process.</t>
@@ -1276,7 +1360,7 @@
     <t xml:space="preserve">IP-Adapter</t>
   </si>
   <si>
-    <t xml:space="preserve">144</t>
+    <t xml:space="preserve">153</t>
   </si>
   <si>
     <t xml:space="preserve">ADetailer is useful for image editing and enhancement. It works in three main steps: once you create an image it automatically detects object detection and creates a mask, and edits the image to make the specific object look more realistic.</t>
@@ -1285,7 +1369,7 @@
     <t xml:space="preserve">Adetailer</t>
   </si>
   <si>
-    <t xml:space="preserve">145</t>
+    <t xml:space="preserve">154</t>
   </si>
   <si>
     <t xml:space="preserve">This automatically detects and creates a mask for faces and improves their realism. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='beforeadetailer.png' alt='Before Adetailer'&gt; &lt;img style='width: 25%; height: 25%' src='afteradetailer.jpg' alt='After Adetailer'&gt;</t>
@@ -1294,7 +1378,7 @@
     <t xml:space="preserve">Face</t>
   </si>
   <si>
-    <t xml:space="preserve">146</t>
+    <t xml:space="preserve">155</t>
   </si>
   <si>
     <t xml:space="preserve">This automatically detects and creates a mask for hands and improves their realism. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='beforeadetailerhand.png' alt='Before Adetailer'&gt; &lt;img style='width: 25%; height: 25%' src='afteradetailerhand.jpg' alt='After Adetailer'&gt;</t>
@@ -1303,7 +1387,7 @@
     <t xml:space="preserve">Hands</t>
   </si>
   <si>
-    <t xml:space="preserve">147</t>
+    <t xml:space="preserve">156</t>
   </si>
   <si>
     <t xml:space="preserve">This automatically detects and creates a mask for persons and improves their realism. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='beforeadetailerperson.png' alt='Before Adetailer'&gt; &lt;img style='width: 25%; height: 25%' src='afteradetailerperson.jpg' alt='After Adetailer'&gt;</t>
@@ -1312,13 +1396,13 @@
     <t xml:space="preserve">Person</t>
   </si>
   <si>
-    <t xml:space="preserve">148</t>
+    <t xml:space="preserve">157</t>
   </si>
   <si>
     <t xml:space="preserve">ControlNet also has a set of preprocessors that allows the generation of images similar to the reference image.</t>
   </si>
   <si>
-    <t xml:space="preserve">149</t>
+    <t xml:space="preserve">158</t>
   </si>
   <si>
     <t xml:space="preserve">The IP-Adapter Full Face model, can be used to generate similar images. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='outputopenposeface.jpg' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='fullface.jpg' alt='IP-Adapter plus preprocessor'&gt;</t>
@@ -1327,7 +1411,7 @@
     <t xml:space="preserve">Full face</t>
   </si>
   <si>
-    <t xml:space="preserve">150</t>
+    <t xml:space="preserve">159</t>
   </si>
   <si>
     <t xml:space="preserve">The IP-Adapter Plus Face model, can be used to generate faces with specific characteristics from an original image. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='outputopenposeface.jpg' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='plusface.jpg' alt='IP-Adapter plus preprocessor'&gt;</t>
@@ -1336,7 +1420,7 @@
     <t xml:space="preserve">Plus face</t>
   </si>
   <si>
-    <t xml:space="preserve">151</t>
+    <t xml:space="preserve">160</t>
   </si>
   <si>
     <t xml:space="preserve">The IP-Adapter Plus model, can be used to generate faces with specific characteristics from an original cropped image. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='ipadapterplus.jpg' alt='IP-Adapter plus preprocessor'&gt;</t>
@@ -1345,7 +1429,7 @@
     <t xml:space="preserve">Plus</t>
   </si>
   <si>
-    <t xml:space="preserve">152</t>
+    <t xml:space="preserve">161</t>
   </si>
   <si>
     <t xml:space="preserve">ControlNet tile is useful for generating high-resolution images by conditioning on tiled input images. Particularly useful for tasks such as upscaling images with detailed features. Here is the original image and the one 4x upscaled (R-ESRGAN) with ultimate upscale using stable diffusion upscale and with ControlNet tile. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='original.png' alt='Original image'&gt; &lt;img style='width: 75%; height: 75%' src='controlnettile.jpg' alt='Upscaled together with ControlNet tile'&gt;</t>
@@ -1354,13 +1438,13 @@
     <t xml:space="preserve">ControlNet tile</t>
   </si>
   <si>
-    <t xml:space="preserve">153</t>
+    <t xml:space="preserve">162</t>
   </si>
   <si>
     <t xml:space="preserve">LORA   </t>
   </si>
   <si>
-    <t xml:space="preserve">154</t>
+    <t xml:space="preserve">163</t>
   </si>
   <si>
     <t xml:space="preserve">Open Pose Face focuses on keeping the face feature. Here we can replicate the laugh of the first person using open pose face. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='originalopenposeface.jpg' alt='Original image'&gt; &lt;img style='width: 25%; height: 25%' src='openposefacepreprocessor.png' alt='Open Pose preprocessor'&gt; &lt;img style='width: 25%; height: 25%' src='outputopenposeface.jpg' alt='Color T2I output'&gt;</t>
@@ -1369,13 +1453,13 @@
     <t xml:space="preserve">Open Pose Face</t>
   </si>
   <si>
-    <t xml:space="preserve">155</t>
+    <t xml:space="preserve">164</t>
   </si>
   <si>
     <t xml:space="preserve">Inpainting </t>
   </si>
   <si>
-    <t xml:space="preserve">156</t>
+    <t xml:space="preserve">165</t>
   </si>
   <si>
     <t xml:space="preserve">UniPC sampler stands for 'Unified Predictor-Corrector' for Fast Sampling of Diffusion Models. The predictor can be applied after any Diffusion Probabilistic Model (DPM) sampler and is model-agnostic. UniPC a training-free framework, which allows it to be efficient and accurate sampling method. You can see below that different samplers will lead to different results (especially if they are ancestral samplers). &lt;br&gt; &lt;br&gt; &lt;img style='width: 100%; height: 100%' src='samplers.jpeg' alt='Samplers'&gt;</t>
@@ -1384,10 +1468,10 @@
     <t xml:space="preserve">UniPC</t>
   </si>
   <si>
-    <t xml:space="preserve">157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158</t>
+    <t xml:space="preserve">166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167</t>
   </si>
   <si>
     <t xml:space="preserve">You can use segmentation to create a mask to then inpaint just a specific object or part of an object. Here I select the corner of the couch from the segmentation map and use it to create an inpainting mask and inpaint another couch with it. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='segmentation.png' alt='Segmentation image'&gt; &lt;img style='width: 25%; height: 25%' src='segmentationmask.png' alt='Segmentation mask'&gt; &lt;img style='width: 25%; height: 25%' src='inpainting.png' alt='Clip vision controlNet output'&gt;</t>
@@ -1396,7 +1480,7 @@
     <t xml:space="preserve">Inpainting  </t>
   </si>
   <si>
-    <t xml:space="preserve">159</t>
+    <t xml:space="preserve">168</t>
   </si>
   <si>
     <t xml:space="preserve">You can use segmentation to create a mask to then inpaint just a specific object or part of an object by leveraging controlNet inpainting for consistency. Here I select the corner of the couch from the segmentation map and use it to create an inpainting mask and inpaint another couch with it. &lt;br&gt; &lt;br&gt; &lt;img style='width: 25%; height: 25%' src='segmentation.png' alt='Segmentation image'&gt; &lt;img style='width: 25%; height: 25%' src='segmentationmask.png' alt='Segmentation mask'&gt; &lt;img style='width: 25%; height: 25%' src='controlnetinpainting.png' alt='Clip vision controlNet output'&gt;</t>
@@ -1405,7 +1489,7 @@
     <t xml:space="preserve">ControlNet       </t>
   </si>
   <si>
-    <t xml:space="preserve">160</t>
+    <t xml:space="preserve">169</t>
   </si>
   <si>
     <t xml:space="preserve">Stable Cascade is a 3-stage text-to-image model: Stages A, B and C. Stage C transforms inputs into latents passed to Stages A &amp; B which decode them into images. By decoupling text conditioning (Stage C) from pixel generation (Stages A &amp; B), finetuning and maybe stuff like ControlNets can be done just on Stage C, reducing computational costs. Still it uses a lot of VRAM and can't run on my machine but runs well in the cloud. You may have to swap models to run it (as in not keep all models in memory at the same time). &lt;br&gt; &lt;br&gt; &lt;img style='width: 100%; height: 100%' src='cascade.png' alt='Stable cascade'&gt;</t>
@@ -1421,7 +1505,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1443,6 +1527,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1487,9 +1577,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1509,10 +1607,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D97" activeCellId="0" sqref="D97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A122" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B125" activeCellId="0" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1536,7 +1634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1547,7 +1645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1561,7 +1659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -1575,7 +1673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -1589,7 +1687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -1603,7 +1701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -1617,7 +1715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -1631,7 +1729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>25</v>
       </c>
@@ -1645,7 +1743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>28</v>
       </c>
@@ -1659,7 +1757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>31</v>
       </c>
@@ -1673,7 +1771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>34</v>
       </c>
@@ -1687,7 +1785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>37</v>
       </c>
@@ -1701,7 +1799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>40</v>
       </c>
@@ -1715,7 +1813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>43</v>
       </c>
@@ -1729,7 +1827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>46</v>
       </c>
@@ -1743,7 +1841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>49</v>
       </c>
@@ -1757,7 +1855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>52</v>
       </c>
@@ -1771,7 +1869,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>56</v>
       </c>
@@ -1785,7 +1883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>59</v>
       </c>
@@ -1799,7 +1897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>61</v>
       </c>
@@ -1813,7 +1911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>64</v>
       </c>
@@ -1827,7 +1925,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>67</v>
       </c>
@@ -1841,7 +1939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>70</v>
       </c>
@@ -1855,7 +1953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>73</v>
       </c>
@@ -1869,7 +1967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>76</v>
       </c>
@@ -1883,7 +1981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>79</v>
       </c>
@@ -1897,7 +1995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>82</v>
       </c>
@@ -1911,7 +2009,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>86</v>
       </c>
@@ -1925,7 +2023,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>89</v>
       </c>
@@ -1939,7 +2037,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>92</v>
       </c>
@@ -1953,7 +2051,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>95</v>
       </c>
@@ -1967,7 +2065,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>98</v>
       </c>
@@ -1981,7 +2079,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>101</v>
       </c>
@@ -1995,7 +2093,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>104</v>
       </c>
@@ -2009,7 +2107,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>107</v>
       </c>
@@ -2023,7 +2121,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>110</v>
       </c>
@@ -2037,7 +2135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>112</v>
       </c>
@@ -2051,7 +2149,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>115</v>
       </c>
@@ -2065,7 +2163,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>118</v>
       </c>
@@ -2079,7 +2177,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>121</v>
       </c>
@@ -2093,7 +2191,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>124</v>
       </c>
@@ -2107,7 +2205,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>127</v>
       </c>
@@ -2121,7 +2219,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>130</v>
       </c>
@@ -2135,7 +2233,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>133</v>
       </c>
@@ -2149,7 +2247,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>137</v>
       </c>
@@ -2163,7 +2261,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>140</v>
       </c>
@@ -2177,7 +2275,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>144</v>
       </c>
@@ -2191,7 +2289,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>147</v>
       </c>
@@ -2205,7 +2303,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>150</v>
       </c>
@@ -2219,7 +2317,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>153</v>
       </c>
@@ -2233,7 +2331,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>156</v>
       </c>
@@ -2247,7 +2345,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>159</v>
       </c>
@@ -2261,7 +2359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>162</v>
       </c>
@@ -2275,7 +2373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>165</v>
       </c>
@@ -2289,7 +2387,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>168</v>
       </c>
@@ -2303,7 +2401,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>170</v>
       </c>
@@ -2317,7 +2415,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>173</v>
       </c>
@@ -2331,7 +2429,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>176</v>
       </c>
@@ -2345,7 +2443,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>179</v>
       </c>
@@ -2359,7 +2457,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>182</v>
       </c>
@@ -2373,7 +2471,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>185</v>
       </c>
@@ -2387,7 +2485,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>188</v>
       </c>
@@ -2401,7 +2499,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>191</v>
       </c>
@@ -2415,7 +2513,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>194</v>
       </c>
@@ -2429,7 +2527,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>197</v>
       </c>
@@ -2443,7 +2541,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>200</v>
       </c>
@@ -2457,7 +2555,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>203</v>
       </c>
@@ -2471,7 +2569,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>206</v>
       </c>
@@ -2485,7 +2583,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>209</v>
       </c>
@@ -2499,7 +2597,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>212</v>
       </c>
@@ -2513,7 +2611,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>215</v>
       </c>
@@ -2527,7 +2625,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>218</v>
       </c>
@@ -2541,7 +2639,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>220</v>
       </c>
@@ -2555,7 +2653,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>222</v>
       </c>
@@ -2569,7 +2667,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>225</v>
       </c>
@@ -2583,7 +2681,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>228</v>
       </c>
@@ -2597,7 +2695,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>231</v>
       </c>
@@ -2611,7 +2709,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>234</v>
       </c>
@@ -2625,7 +2723,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>237</v>
       </c>
@@ -2639,7 +2737,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>240</v>
       </c>
@@ -2653,7 +2751,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>243</v>
       </c>
@@ -2667,7 +2765,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>246</v>
       </c>
@@ -2681,7 +2779,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>249</v>
       </c>
@@ -2695,7 +2793,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>252</v>
       </c>
@@ -2709,7 +2807,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>256</v>
       </c>
@@ -2723,7 +2821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>259</v>
       </c>
@@ -2737,7 +2835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>262</v>
       </c>
@@ -2751,7 +2849,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>265</v>
       </c>
@@ -2765,7 +2863,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>268</v>
       </c>
@@ -2779,7 +2877,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>271</v>
       </c>
@@ -2793,7 +2891,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>274</v>
       </c>
@@ -2807,7 +2905,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>277</v>
       </c>
@@ -2821,7 +2919,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>280</v>
       </c>
@@ -2835,7 +2933,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>283</v>
       </c>
@@ -2849,7 +2947,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>286</v>
       </c>
@@ -2863,7 +2961,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>289</v>
       </c>
@@ -2877,7 +2975,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>292</v>
       </c>
@@ -2891,7 +2989,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>295</v>
       </c>
@@ -2905,7 +3003,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>298</v>
       </c>
@@ -2919,7 +3017,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>300</v>
       </c>
@@ -2933,7 +3031,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>303</v>
       </c>
@@ -2947,7 +3045,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>307</v>
       </c>
@@ -2961,7 +3059,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>310</v>
       </c>
@@ -2975,7 +3073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>313</v>
       </c>
@@ -2989,7 +3087,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>316</v>
       </c>
@@ -3003,7 +3101,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>317</v>
       </c>
@@ -3017,7 +3115,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>320</v>
       </c>
@@ -3031,7 +3129,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>323</v>
       </c>
@@ -3045,7 +3143,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>326</v>
       </c>
@@ -3059,7 +3157,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>329</v>
       </c>
@@ -3073,7 +3171,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>331</v>
       </c>
@@ -3087,7 +3185,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>333</v>
       </c>
@@ -3101,7 +3199,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>335</v>
       </c>
@@ -3115,7 +3213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>338</v>
       </c>
@@ -3129,623 +3227,765 @@
         <v>337</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D116" s="0" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D116" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D117" s="0" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D117" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="B118" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="C118" s="0" t="s">
+      <c r="B118" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="C118" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="B119" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="B119" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="C119" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D119" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D120" s="0" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D120" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D121" s="0" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D121" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D122" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D122" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D123" s="0" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D123" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D124" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D124" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D125" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D125" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="B127" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="C127" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="D127" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="D127" s="0" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="B128" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="C128" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="D128" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="D128" s="0" t="s">
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="B129" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="C129" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="D129" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="B130" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D138" s="0" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="D130" s="0" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="D131" s="0" t="s">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="D140" s="0" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="D132" s="0" t="s">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="D141" s="0" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="D133" s="0" t="s">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D142" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="C134" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="D134" s="0" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="B135" s="0" t="s">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B144" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C144" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D135" s="0" t="s">
+      <c r="D144" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="D163" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="B136" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="C136" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="D136" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="C137" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="D137" s="0" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="C139" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D139" s="0" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="C140" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="C141" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="D141" s="0" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="B142" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="C142" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="D142" s="0" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="C143" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="D143" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C144" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="D144" s="0" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="C145" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="D145" s="0" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="C146" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="D146" s="0" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="C147" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="D147" s="0" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="C148" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="D148" s="0" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="B149" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="C149" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="D149" s="0" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="C150" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="D150" s="0" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="C151" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="D151" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="C152" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="D152" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="C153" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="D153" s="0" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="B154" s="0" t="s">
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="D166" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C154" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="D154" s="0" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="C155" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="D155" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="C156" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="D156" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="B157" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="C157" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="D157" s="0" t="s">
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="D167" s="0" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="C158" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="D158" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="B159" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="C159" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="D159" s="0" t="s">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="D168" s="0" t="s">
         <v>208</v>
       </c>
     </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B120" r:id="rId1" display="https://github.com/lllyasviel/stable-diffusion-webui-forge"/>
+    <hyperlink ref="B124" r:id="rId2" display="https://github.com/KwaiVGI/LivePortrait"/>
+    <hyperlink ref="B125" r:id="rId3" display="https://github.com/lllyasviel/IC-Light"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
